--- a/dumps/Stocks/TATA Power.xlsx
+++ b/dumps/Stocks/TATA Power.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -215,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -481,6 +482,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +790,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1019"/>
+  <dimension ref="A1:AP1020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
@@ -1137,43 +1139,44 @@
       <c r="AP4" s="70" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="102" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="103" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>346.8</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3492.55</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4095.4</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>21.08</v>
+      <c r="I5" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="102" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1189,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>371.65</v>
+        <v>346.8</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3742.84</v>
+        <v>3492.55</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1200,15 +1203,15 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.72</v>
+        <v>3.47</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>22.62</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="102" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1224,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>362.05</v>
+        <v>371.65</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3646.16</v>
+        <v>3742.84</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1235,15 +1238,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>22.03</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="102" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1259,10 +1262,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>381.1</v>
+        <v>362.05</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3838.04</v>
+        <v>3646.16</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1270,15 +1273,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.79</v>
+        <v>3.63</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>23.25</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="102" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1294,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>392.5</v>
+        <v>381.1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3952.78</v>
+        <v>3838.04</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1305,19 +1308,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.92</v>
+        <v>3.79</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23.86</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="102" t="n">
-        <v>46020</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1329,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>377.2</v>
+        <v>392.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3798.83</v>
+        <v>3952.78</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1340,19 +1343,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>23.04</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="102" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1361,13 +1364,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>380.1</v>
+        <v>377.2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3445.15</v>
+        <v>3798.83</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1375,10 +1378,10 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>20.82</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="12">
@@ -1396,13 +1399,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>380.1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>382.79</v>
+        <v>3445.15</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1410,19 +1413,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.38</v>
+        <v>3.43</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>2.31</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="102" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1431,13 +1434,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>382.25</v>
+        <v>380.1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1924.8</v>
+        <v>382.79</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1445,10 +1448,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.9</v>
+        <v>0.38</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>11.65</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="14">
@@ -1457,7 +1460,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1472,7 +1475,7 @@
         <v>382.25</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1924.79</v>
+        <v>1924.8</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1483,16 +1486,16 @@
         <v>1.9</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="102" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1501,13 +1504,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>381.7</v>
+        <v>382.25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3844.06</v>
+        <v>1924.79</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1515,15 +1518,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>23.26</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="102" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1539,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>374.6</v>
+        <v>381.7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3772.53</v>
+        <v>3844.06</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1550,19 +1553,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>22.77</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="102" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1574,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>379.65</v>
+        <v>374.6</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3823.43</v>
+        <v>3772.53</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1585,15 +1588,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>23.14</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="102" t="n">
-        <v>45981</v>
+        <v>46007</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1609,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>390.8</v>
+        <v>379.65</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3935.65</v>
+        <v>3823.43</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1620,19 +1623,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>23.77</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="102" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1644,10 +1647,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>391.2</v>
+        <v>390.8</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3939.8</v>
+        <v>3935.65</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1655,19 +1658,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>23.88</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="102" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1676,13 +1679,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>391.15</v>
+        <v>391.2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5908.93</v>
+        <v>3939.8</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1690,15 +1693,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>5.89</v>
+        <v>3.92</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>35.79</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="102" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1711,13 +1714,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>390.3</v>
+        <v>391.15</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3930.64</v>
+        <v>5908.93</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1725,15 +1728,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3.88</v>
+        <v>5.89</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>23.76</v>
+        <v>35.79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="102" t="n">
-        <v>45961</v>
+        <v>45974</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1746,13 +1749,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>407.5</v>
+        <v>390.3</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>410.38</v>
+        <v>3930.64</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1760,10 +1763,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.41</v>
+        <v>3.88</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>2.47</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="23">
@@ -1851,13 +1854,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>820.79</v>
+        <v>410.38</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1865,10 +1868,10 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>4.97</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="26">
@@ -1886,13 +1889,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1231.16</v>
+        <v>820.79</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1900,10 +1903,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>7.44</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="27">
@@ -1921,13 +1924,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>410.38</v>
+        <v>1231.16</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1935,10 +1938,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.41</v>
+        <v>1.22</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>2.47</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="28">
@@ -1978,7 +1981,7 @@
     </row>
     <row r="29">
       <c r="A29" s="102" t="n">
-        <v>45947</v>
+        <v>45961</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1991,13 +1994,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>396</v>
+        <v>407.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3988.06</v>
+        <v>410.38</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2005,113 +2008,50 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.97</v>
+        <v>0.41</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>24.09</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="38" t="n">
+      <c r="A30" s="102" t="n">
         <v>45947</v>
       </c>
-      <c r="B30" s="39" t="inlineStr">
+      <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C30" s="39" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D30" s="40" t="n">
+      <c r="D30" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="41" t="n">
-        <v>398.81</v>
-      </c>
-      <c r="F30" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G30" s="39" t="inlineStr">
+      <c r="E30" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>3988.06</v>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H30" s="40" t="n"/>
-      <c r="I30" s="40" t="n"/>
-      <c r="J30" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K30" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M30" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O30" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R30" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T30" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U30" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V30" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W30" s="46" t="n"/>
-      <c r="X30" s="46" t="n"/>
-      <c r="Y30" s="45">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="46" t="n"/>
-      <c r="AA30" s="46" t="n"/>
-      <c r="AB30" s="47" t="n"/>
-      <c r="AC30" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="48" t="n"/>
+      <c r="H30" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45863</v>
+        <v>45947</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2127,92 +2067,89 @@
         <v>10</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>402.99</v>
-      </c>
-      <c r="F31" s="41" t="n">
-        <v>4029.92</v>
+        <v>398.81</v>
+      </c>
+      <c r="F31" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H31" s="40" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I31" s="40" t="n">
-        <v>24.37</v>
-      </c>
+      <c r="H31" s="40" t="n"/>
+      <c r="I31" s="40" t="n"/>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L31" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M31" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P31" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R31" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T31" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U31" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V31" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W31" s="46" t="n"/>
       <c r="X31" s="46" t="n"/>
       <c r="Y31" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z31" s="46" t="n"/>
       <c r="AA31" s="46" t="n"/>
       <c r="AB31" s="47" t="n"/>
       <c r="AC31" s="42">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD31" s="48" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45855</v>
+        <v>45863</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2225,13 +2162,13 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>415.52</v>
+        <v>402.99</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>8310.49</v>
+        <v>4029.92</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2239,85 +2176,85 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>8.25</v>
+        <v>4.05</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>50.24</v>
+        <v>24.37</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L32" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M32" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P32" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R32" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T32" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U32" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V32" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W32" s="46" t="n"/>
       <c r="X32" s="46" t="n"/>
       <c r="Y32" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z32" s="46" t="n"/>
       <c r="AA32" s="46" t="n"/>
       <c r="AB32" s="47" t="n"/>
       <c r="AC32" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD32" s="48" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45842</v>
+        <v>45855</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
@@ -2326,13 +2263,13 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>404.34</v>
+        <v>415.52</v>
       </c>
       <c r="F33" s="41" t="n">
-        <v>6065.16</v>
+        <v>8310.49</v>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
@@ -2340,85 +2277,85 @@
         </is>
       </c>
       <c r="H33" s="40" t="n">
-        <v>6.01</v>
+        <v>8.25</v>
       </c>
       <c r="I33" s="40" t="n">
-        <v>36.65</v>
+        <v>50.24</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L33" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M33" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P33" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R33" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T33" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U33" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V33" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W33" s="46" t="n"/>
       <c r="X33" s="46" t="n"/>
       <c r="Y33" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z33" s="46" t="n"/>
       <c r="AA33" s="46" t="n"/>
       <c r="AB33" s="47" t="n"/>
       <c r="AC33" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD33" s="48" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45828</v>
+        <v>45842</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
@@ -2427,99 +2364,99 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>2.25</v>
+        <v>404.34</v>
       </c>
       <c r="F34" s="41" t="n">
-        <v>652.5</v>
+        <v>6065.16</v>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.2500/- per share on Ex-Date: 20-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H34" s="40" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="I34" s="40" t="n">
-        <v>0</v>
+        <v>36.65</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L34" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M34" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P34" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R34" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S34" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T34" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U34" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V34" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W34" s="46" t="n"/>
       <c r="X34" s="46" t="n"/>
       <c r="Y34" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z34" s="46" t="n"/>
       <c r="AA34" s="46" t="n"/>
       <c r="AB34" s="47" t="n"/>
       <c r="AC34" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD34" s="48" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45820</v>
+        <v>45828</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -2528,95 +2465,95 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>413.86</v>
+        <v>2.25</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>4138.56</v>
+        <v>652.5</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.2500/- per share on Ex-Date: 20-JUN-2025</t>
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>24.96</v>
+        <v>0</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L35" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M35" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N35" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P35" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R35" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S35" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T35" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U35" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V35" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W35" s="46" t="n"/>
       <c r="X35" s="46" t="n"/>
       <c r="Y35" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z35" s="46" t="n"/>
       <c r="AA35" s="46" t="n"/>
       <c r="AB35" s="47" t="n"/>
       <c r="AC35" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD35" s="48" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2632,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>394.08</v>
+        <v>413.86</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>3940.77</v>
+        <v>4138.56</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -2643,81 +2580,81 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>3.93</v>
+        <v>4.1</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>23.84</v>
+        <v>24.96</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L36" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M36" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N36" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P36" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R36" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S36" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T36" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U36" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V36" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W36" s="46" t="n"/>
       <c r="X36" s="46" t="n"/>
       <c r="Y36" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z36" s="46" t="n"/>
       <c r="AA36" s="46" t="n"/>
       <c r="AB36" s="47" t="n"/>
       <c r="AC36" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD36" s="48" t="n"/>
     </row>
     <row r="37" hidden="1" s="89">
       <c r="A37" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
@@ -2733,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>398.81</v>
+        <v>394.08</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>3988.06</v>
+        <v>3940.77</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -2744,81 +2681,81 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>24.1</v>
+        <v>23.84</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L37" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M37" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N37" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P37" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R37" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S37" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T37" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U37" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V37" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W37" s="46" t="n"/>
       <c r="X37" s="46" t="n"/>
       <c r="Y37" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z37" s="46" t="n"/>
       <c r="AA37" s="46" t="n"/>
       <c r="AB37" s="47" t="n"/>
       <c r="AC37" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD37" s="48" t="n"/>
     </row>
     <row r="38" hidden="1" s="89">
       <c r="A38" s="38" t="n">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -2831,13 +2768,13 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>398.21</v>
+        <v>398.81</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>7964.14</v>
+        <v>3988.06</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -2845,81 +2782,81 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>7.95</v>
+        <v>3.96</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>48.19</v>
+        <v>24.1</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L38" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M38" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N38" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P38" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R38" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S38" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T38" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U38" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V38" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W38" s="46" t="n"/>
       <c r="X38" s="46" t="n"/>
       <c r="Y38" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z38" s="46" t="n"/>
       <c r="AA38" s="46" t="n"/>
       <c r="AB38" s="47" t="n"/>
       <c r="AC38" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD38" s="48" t="n"/>
     </row>
     <row r="39" hidden="1" s="89">
       <c r="A39" s="38" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2932,13 +2869,13 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>398.81</v>
+        <v>398.21</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>3988.11</v>
+        <v>7964.14</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2946,181 +2883,182 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>3.98</v>
+        <v>7.95</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>24.13</v>
+        <v>48.19</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L39" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M39" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N39" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P39" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R39" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S39" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T39" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U39" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V39" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W39" s="46" t="n"/>
       <c r="X39" s="46" t="n"/>
       <c r="Y39" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z39" s="46" t="n"/>
       <c r="AA39" s="46" t="n"/>
       <c r="AB39" s="47" t="n"/>
       <c r="AC39" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD39" s="48" t="n"/>
     </row>
     <row r="40" hidden="1" s="89">
-      <c r="A40" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B40" s="50" t="inlineStr">
+      <c r="A40" s="38" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B40" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C40" s="50" t="inlineStr">
+      <c r="C40" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D40" s="51" t="n">
+      <c r="D40" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="E40" s="52" t="n">
-        <v>361.34</v>
-      </c>
-      <c r="F40" s="53">
-        <f>E15*D15 + sum(H15:I15)</f>
-        <v/>
-      </c>
-      <c r="G40" s="50" t="inlineStr">
+      <c r="E40" s="41" t="n">
+        <v>398.81</v>
+      </c>
+      <c r="F40" s="41" t="n">
+        <v>3988.11</v>
+      </c>
+      <c r="G40" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="51" t="n"/>
-      <c r="I40" s="51" t="n">
-        <v>25.4</v>
+      <c r="H40" s="40" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="I40" s="40" t="n">
+        <v>24.13</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L40" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M40" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N40" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P40" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R40" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S40" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T40" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U40" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V40" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W40" s="46" t="n"/>
       <c r="X40" s="46" t="n"/>
       <c r="Y40" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z40" s="46" t="n"/>
       <c r="AA40" s="46" t="n"/>
       <c r="AB40" s="47" t="n"/>
       <c r="AC40" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD40" s="48" t="n"/>
     </row>
     <row r="41" hidden="1" s="89">
       <c r="A41" s="49" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B41" s="50" t="inlineStr">
         <is>
@@ -3133,95 +3071,94 @@
         </is>
       </c>
       <c r="D41" s="51" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E41" s="52" t="n">
-        <v>355.35</v>
-      </c>
-      <c r="F41" s="52" t="n">
-        <v>7106.95</v>
+        <v>361.34</v>
+      </c>
+      <c r="F41" s="53">
+        <f>E15*D15 + sum(H15:I15)</f>
+        <v/>
       </c>
       <c r="G41" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="51" t="n">
-        <v>7.09</v>
-      </c>
+      <c r="H41" s="51" t="n"/>
       <c r="I41" s="51" t="n">
-        <v>42.86</v>
+        <v>25.4</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L41" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M41" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N41" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P41" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R41" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S41" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T41" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U41" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V41" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W41" s="46" t="n"/>
       <c r="X41" s="46" t="n"/>
       <c r="Y41" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z41" s="46" t="n"/>
       <c r="AA41" s="46" t="n"/>
       <c r="AB41" s="47" t="n"/>
       <c r="AC41" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD41" s="48" t="n"/>
     </row>
     <row r="42" hidden="1" s="89">
       <c r="A42" s="49" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B42" s="50" t="inlineStr">
         <is>
@@ -3234,13 +3171,13 @@
         </is>
       </c>
       <c r="D42" s="51" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E42" s="52" t="n">
-        <v>356.91</v>
+        <v>355.35</v>
       </c>
       <c r="F42" s="52" t="n">
-        <v>713.8200000000001</v>
+        <v>7106.95</v>
       </c>
       <c r="G42" s="50" t="inlineStr">
         <is>
@@ -3248,74 +3185,74 @@
         </is>
       </c>
       <c r="H42" s="51" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="I42" s="51" t="n">
-        <v>4.31</v>
+        <v>42.86</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L42" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M42" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N42" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P42" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R42" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S42" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T42" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U42" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V42" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W42" s="46" t="n"/>
       <c r="X42" s="46" t="n"/>
       <c r="Y42" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z42" s="46" t="n"/>
       <c r="AA42" s="46" t="n"/>
       <c r="AB42" s="47" t="n"/>
       <c r="AC42" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD42" s="48" t="n"/>
@@ -3335,13 +3272,13 @@
         </is>
       </c>
       <c r="D43" s="51" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E43" s="52" t="n">
         <v>356.91</v>
       </c>
       <c r="F43" s="52" t="n">
-        <v>6424.37</v>
+        <v>713.8200000000001</v>
       </c>
       <c r="G43" s="50" t="inlineStr">
         <is>
@@ -3349,74 +3286,74 @@
         </is>
       </c>
       <c r="H43" s="51" t="n">
-        <v>6.37</v>
+        <v>0.71</v>
       </c>
       <c r="I43" s="51" t="n">
-        <v>38.8</v>
+        <v>4.31</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L43" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M43" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N43" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P43" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R43" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S43" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T43" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U43" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V43" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W43" s="46" t="n"/>
       <c r="X43" s="46" t="n"/>
       <c r="Y43" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z43" s="46" t="n"/>
       <c r="AA43" s="46" t="n"/>
       <c r="AB43" s="47" t="n"/>
       <c r="AC43" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD43" s="48" t="n"/>
@@ -3436,13 +3373,13 @@
         </is>
       </c>
       <c r="D44" s="51" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44" s="52" t="n">
         <v>356.91</v>
       </c>
       <c r="F44" s="52" t="n">
-        <v>3569.07</v>
+        <v>6424.37</v>
       </c>
       <c r="G44" s="50" t="inlineStr">
         <is>
@@ -3450,81 +3387,81 @@
         </is>
       </c>
       <c r="H44" s="51" t="n">
-        <v>3.53</v>
+        <v>6.37</v>
       </c>
       <c r="I44" s="51" t="n">
-        <v>21.54</v>
+        <v>38.8</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L44" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M44" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N44" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P44" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R44" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S44" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T44" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U44" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V44" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W44" s="46" t="n"/>
       <c r="X44" s="46" t="n"/>
       <c r="Y44" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z44" s="46" t="n"/>
       <c r="AA44" s="46" t="n"/>
       <c r="AB44" s="47" t="n"/>
       <c r="AC44" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD44" s="48" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B45" s="50" t="inlineStr">
         <is>
@@ -3537,13 +3474,13 @@
         </is>
       </c>
       <c r="D45" s="51" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E45" s="52" t="n">
-        <v>330.87</v>
+        <v>356.91</v>
       </c>
       <c r="F45" s="52" t="n">
-        <v>18198.12</v>
+        <v>3569.07</v>
       </c>
       <c r="G45" s="50" t="inlineStr">
         <is>
@@ -3551,81 +3488,81 @@
         </is>
       </c>
       <c r="H45" s="51" t="n">
-        <v>18.04</v>
+        <v>3.53</v>
       </c>
       <c r="I45" s="51" t="n">
-        <v>109.83</v>
+        <v>21.54</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L45" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M45" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N45" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P45" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R45" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S45" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T45" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U45" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V45" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W45" s="46" t="n"/>
       <c r="X45" s="46" t="n"/>
       <c r="Y45" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z45" s="46" t="n"/>
       <c r="AA45" s="46" t="n"/>
       <c r="AB45" s="47" t="n"/>
       <c r="AC45" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD45" s="48" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="49" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B46" s="50" t="inlineStr">
         <is>
@@ -3638,13 +3575,13 @@
         </is>
       </c>
       <c r="D46" s="51" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E46" s="52" t="n">
-        <v>340.95</v>
+        <v>330.87</v>
       </c>
       <c r="F46" s="52" t="n">
-        <v>10228.37</v>
+        <v>18198.12</v>
       </c>
       <c r="G46" s="50" t="inlineStr">
         <is>
@@ -3652,81 +3589,81 @@
         </is>
       </c>
       <c r="H46" s="51" t="n">
-        <v>10.17</v>
+        <v>18.04</v>
       </c>
       <c r="I46" s="51" t="n">
-        <v>61.7</v>
+        <v>109.83</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L46" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M46" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N46" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P46" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R46" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S46" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T46" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U46" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V46" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W46" s="46" t="n"/>
       <c r="X46" s="46" t="n"/>
       <c r="Y46" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z46" s="46" t="n"/>
       <c r="AA46" s="46" t="n"/>
       <c r="AB46" s="47" t="n"/>
       <c r="AC46" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD46" s="48" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="49" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B47" s="50" t="inlineStr">
         <is>
@@ -3739,13 +3676,13 @@
         </is>
       </c>
       <c r="D47" s="51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E47" s="52" t="n">
-        <v>352.33</v>
+        <v>340.95</v>
       </c>
       <c r="F47" s="52" t="n">
-        <v>3523.3</v>
+        <v>10228.37</v>
       </c>
       <c r="G47" s="50" t="inlineStr">
         <is>
@@ -3753,81 +3690,81 @@
         </is>
       </c>
       <c r="H47" s="51" t="n">
-        <v>3.5</v>
+        <v>10.17</v>
       </c>
       <c r="I47" s="51" t="n">
-        <v>21.3</v>
+        <v>61.7</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L47" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M47" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N47" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P47" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R47" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S47" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T47" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U47" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V47" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W47" s="46" t="n"/>
       <c r="X47" s="46" t="n"/>
       <c r="Y47" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z47" s="46" t="n"/>
       <c r="AA47" s="46" t="n"/>
       <c r="AB47" s="47" t="n"/>
       <c r="AC47" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD47" s="48" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="49" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B48" s="50" t="inlineStr">
         <is>
@@ -3840,13 +3777,13 @@
         </is>
       </c>
       <c r="D48" s="51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E48" s="52" t="n">
-        <v>369.09</v>
+        <v>352.33</v>
       </c>
       <c r="F48" s="52" t="n">
-        <v>1845.47</v>
+        <v>3523.3</v>
       </c>
       <c r="G48" s="50" t="inlineStr">
         <is>
@@ -3854,81 +3791,81 @@
         </is>
       </c>
       <c r="H48" s="51" t="n">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="I48" s="51" t="n">
-        <v>11.14</v>
+        <v>21.3</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L48" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M48" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N48" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P48" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R48" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S48" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T48" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U48" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V48" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W48" s="46" t="n"/>
       <c r="X48" s="46" t="n"/>
       <c r="Y48" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z48" s="46" t="n"/>
       <c r="AA48" s="46" t="n"/>
       <c r="AB48" s="47" t="n"/>
       <c r="AC48" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD48" s="48" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="49" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B49" s="50" t="inlineStr">
         <is>
@@ -3941,13 +3878,13 @@
         </is>
       </c>
       <c r="D49" s="51" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E49" s="52" t="n">
-        <v>358.57</v>
+        <v>369.09</v>
       </c>
       <c r="F49" s="52" t="n">
-        <v>8964.34</v>
+        <v>1845.47</v>
       </c>
       <c r="G49" s="50" t="inlineStr">
         <is>
@@ -3955,74 +3892,74 @@
         </is>
       </c>
       <c r="H49" s="51" t="n">
-        <v>8.890000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="I49" s="51" t="n">
-        <v>54.2</v>
+        <v>11.14</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L49" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M49" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N49" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P49" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R49" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S49" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T49" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U49" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V49" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W49" s="46" t="n"/>
       <c r="X49" s="46" t="n"/>
       <c r="Y49" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z49" s="46" t="n"/>
       <c r="AA49" s="46" t="n"/>
       <c r="AB49" s="47" t="n"/>
       <c r="AC49" s="42">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD49" s="48" t="n"/>
@@ -4042,13 +3979,13 @@
         </is>
       </c>
       <c r="D50" s="51" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E50" s="52" t="n">
-        <v>358.58</v>
+        <v>358.57</v>
       </c>
       <c r="F50" s="52" t="n">
-        <v>1792.88</v>
+        <v>8964.34</v>
       </c>
       <c r="G50" s="50" t="inlineStr">
         <is>
@@ -4056,81 +3993,81 @@
         </is>
       </c>
       <c r="H50" s="51" t="n">
-        <v>1.78</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I50" s="51" t="n">
-        <v>10.85</v>
+        <v>54.2</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L50" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M50" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N50" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P50" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R50" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S50" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T50" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U50" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V50" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W50" s="46" t="n"/>
       <c r="X50" s="46" t="n"/>
       <c r="Y50" s="45">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z50" s="46" t="n"/>
       <c r="AA50" s="46" t="n"/>
       <c r="AB50" s="47" t="n"/>
       <c r="AC50" s="42">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD50" s="48" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="49" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B51" s="50" t="inlineStr">
         <is>
@@ -4143,13 +4080,13 @@
         </is>
       </c>
       <c r="D51" s="51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E51" s="52" t="n">
-        <v>423.29</v>
+        <v>358.58</v>
       </c>
       <c r="F51" s="52" t="n">
-        <v>4232.86</v>
+        <v>1792.88</v>
       </c>
       <c r="G51" s="50" t="inlineStr">
         <is>
@@ -4157,85 +4094,85 @@
         </is>
       </c>
       <c r="H51" s="51" t="n">
-        <v>4.26</v>
+        <v>1.78</v>
       </c>
       <c r="I51" s="51" t="n">
-        <v>25.6</v>
+        <v>10.85</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L51" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M51" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N51" s="44">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P51" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R51" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S51" s="45">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T51" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U51" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V51" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W51" s="46" t="n"/>
       <c r="X51" s="46" t="n"/>
       <c r="Y51" s="45">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z51" s="46" t="n"/>
       <c r="AA51" s="46" t="n"/>
       <c r="AB51" s="47" t="n"/>
       <c r="AC51" s="42">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD51" s="48" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="49" t="n">
-        <v>45477</v>
+        <v>45621</v>
       </c>
       <c r="B52" s="50" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C52" s="50" t="inlineStr">
@@ -4244,99 +4181,99 @@
         </is>
       </c>
       <c r="D52" s="51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E52" s="52" t="n">
-        <v>2</v>
+        <v>423.29</v>
       </c>
       <c r="F52" s="52" t="n">
-        <v>60</v>
+        <v>4232.86</v>
       </c>
       <c r="G52" s="50" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.0000/- per share on Ex-Date: 04-JUL-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H52" s="51" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="I52" s="51" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L52" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M52" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N52" s="44">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P52" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R52" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S52" s="45">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T52" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U52" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V52" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W52" s="46" t="n"/>
       <c r="X52" s="46" t="n"/>
       <c r="Y52" s="45">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z52" s="46" t="n"/>
       <c r="AA52" s="46" t="n"/>
       <c r="AB52" s="47" t="n"/>
       <c r="AC52" s="42">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD52" s="48" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="49" t="n">
-        <v>45352</v>
+        <v>45477</v>
       </c>
       <c r="B53" s="50" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C53" s="50" t="inlineStr">
@@ -4348,92 +4285,92 @@
         <v>30</v>
       </c>
       <c r="E53" s="52" t="n">
-        <v>378.42</v>
+        <v>2</v>
       </c>
       <c r="F53" s="52" t="n">
-        <v>11352.5</v>
+        <v>60</v>
       </c>
       <c r="G53" s="50" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.0000/- per share on Ex-Date: 04-JUL-2024</t>
         </is>
       </c>
       <c r="H53" s="51" t="n">
-        <v>11.29</v>
+        <v>0</v>
       </c>
       <c r="I53" s="51" t="n">
-        <v>68.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L53" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M53" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N53" s="44">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P53" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R53" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S53" s="45">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T53" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U53" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V53" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W53" s="46" t="n"/>
       <c r="X53" s="46" t="n"/>
       <c r="Y53" s="45">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z53" s="46" t="n"/>
       <c r="AA53" s="46" t="n"/>
       <c r="AB53" s="47" t="n"/>
       <c r="AC53" s="42">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD53" s="48" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="49" t="n">
-        <v>44230</v>
+        <v>45352</v>
       </c>
       <c r="B54" s="50" t="inlineStr">
         <is>
@@ -4442,17 +4379,17 @@
       </c>
       <c r="C54" s="50" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D54" s="51" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E54" s="52" t="n">
-        <v>82.08</v>
+        <v>378.42</v>
       </c>
       <c r="F54" s="52" t="n">
-        <v>16416.12</v>
+        <v>11352.5</v>
       </c>
       <c r="G54" s="50" t="inlineStr">
         <is>
@@ -4460,81 +4397,81 @@
         </is>
       </c>
       <c r="H54" s="51" t="n">
-        <v>16.51</v>
+        <v>11.29</v>
       </c>
       <c r="I54" s="51" t="n">
-        <v>97.37</v>
-      </c>
-      <c r="J54" s="54">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L54" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M54" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N54" s="44">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P54" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R54" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S54" s="45">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T54" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U54" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V54" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W54" s="46" t="n"/>
       <c r="X54" s="46" t="n"/>
       <c r="Y54" s="45">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z54" s="46" t="n"/>
       <c r="AA54" s="46" t="n"/>
       <c r="AB54" s="47" t="n"/>
       <c r="AC54" s="42">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD54" s="48" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="49" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B55" s="50" t="inlineStr">
         <is>
@@ -4550,10 +4487,10 @@
         <v>200</v>
       </c>
       <c r="E55" s="52" t="n">
-        <v>80.63</v>
+        <v>82.08</v>
       </c>
       <c r="F55" s="52" t="n">
-        <v>16126.4</v>
+        <v>16416.12</v>
       </c>
       <c r="G55" s="50" t="inlineStr">
         <is>
@@ -4561,81 +4498,81 @@
         </is>
       </c>
       <c r="H55" s="51" t="n">
-        <v>16.24</v>
+        <v>16.51</v>
       </c>
       <c r="I55" s="51" t="n">
-        <v>97.36</v>
+        <v>97.37</v>
       </c>
       <c r="J55" s="54">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L55" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M55" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N55" s="44">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P55" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R55" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S55" s="45">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T55" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U55" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V55" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W55" s="46" t="n"/>
       <c r="X55" s="46" t="n"/>
       <c r="Y55" s="45">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z55" s="46" t="n"/>
       <c r="AA55" s="46" t="n"/>
       <c r="AB55" s="47" t="n"/>
       <c r="AC55" s="42">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD55" s="48" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="49" t="n">
-        <v>44138</v>
+        <v>44229</v>
       </c>
       <c r="B56" s="50" t="inlineStr">
         <is>
@@ -4644,17 +4581,17 @@
       </c>
       <c r="C56" s="50" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D56" s="51" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E56" s="52" t="n">
-        <v>53.47</v>
+        <v>80.63</v>
       </c>
       <c r="F56" s="52" t="n">
-        <v>2673.71</v>
+        <v>16126.4</v>
       </c>
       <c r="G56" s="50" t="inlineStr">
         <is>
@@ -4662,59 +4599,81 @@
         </is>
       </c>
       <c r="H56" s="51" t="n">
-        <v>2.5</v>
+        <v>16.24</v>
       </c>
       <c r="I56" s="51" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="J56" s="55" t="n"/>
-      <c r="K56" s="56" t="n"/>
-      <c r="L56" s="56" t="n"/>
-      <c r="M56" s="57" t="n"/>
-      <c r="N56" s="58" t="n"/>
-      <c r="O56" s="56" t="n"/>
-      <c r="P56" s="56" t="n"/>
-      <c r="Q56" s="59" t="n"/>
-      <c r="R56" s="59" t="n"/>
-      <c r="S56" s="56" t="n"/>
-      <c r="T56" s="56" t="n"/>
-      <c r="U56" s="59" t="n"/>
-      <c r="V56" s="59" t="n"/>
-      <c r="W56" s="52" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="X56" s="49" t="n">
-        <v>44230</v>
-      </c>
+        <v>97.36</v>
+      </c>
+      <c r="J56" s="54">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K56" s="43">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="44">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="43">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="45">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="46">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="46">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="46">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="46" t="n"/>
+      <c r="X56" s="46" t="n"/>
       <c r="Y56" s="45">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="60">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
-        <v/>
-      </c>
-      <c r="AA56" s="60">
-        <f>((E31*D31)+Z31)</f>
-        <v/>
-      </c>
-      <c r="AB56" s="61">
-        <f>D31</f>
-        <v/>
-      </c>
-      <c r="AC56" s="62">
-        <f>if(B31="DIV", F31,"")</f>
-        <v/>
-      </c>
-      <c r="AD56" s="63" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="46" t="n"/>
+      <c r="AA56" s="46" t="n"/>
+      <c r="AB56" s="47" t="n"/>
+      <c r="AC56" s="42">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD56" s="48" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="49" t="n">
-        <v>44084</v>
+        <v>44138</v>
       </c>
       <c r="B57" s="50" t="inlineStr">
         <is>
@@ -4730,10 +4689,10 @@
         <v>50</v>
       </c>
       <c r="E57" s="52" t="n">
-        <v>56.89</v>
+        <v>53.47</v>
       </c>
       <c r="F57" s="52" t="n">
-        <v>2844.41</v>
+        <v>2673.71</v>
       </c>
       <c r="G57" s="50" t="inlineStr">
         <is>
@@ -4741,10 +4700,10 @@
         </is>
       </c>
       <c r="H57" s="51" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I57" s="51" t="n">
-        <v>16.83</v>
+        <v>16.21</v>
       </c>
       <c r="J57" s="55" t="n"/>
       <c r="K57" s="56" t="n"/>
@@ -4766,23 +4725,23 @@
         <v>44230</v>
       </c>
       <c r="Y57" s="45">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z57" s="60">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA57" s="60">
-        <f>((E32*D32)+Z32)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB57" s="61">
-        <f>D32</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC57" s="62">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD57" s="63" t="inlineStr">
@@ -4793,7 +4752,7 @@
     </row>
     <row r="58">
       <c r="A58" s="49" t="n">
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="B58" s="50" t="inlineStr">
         <is>
@@ -4809,10 +4768,10 @@
         <v>50</v>
       </c>
       <c r="E58" s="52" t="n">
-        <v>57.09</v>
+        <v>56.89</v>
       </c>
       <c r="F58" s="52" t="n">
-        <v>2854.53</v>
+        <v>2844.41</v>
       </c>
       <c r="G58" s="50" t="inlineStr">
         <is>
@@ -4820,10 +4779,10 @@
         </is>
       </c>
       <c r="H58" s="51" t="n">
-        <v>3.01</v>
+        <v>2.58</v>
       </c>
       <c r="I58" s="51" t="n">
-        <v>16.52</v>
+        <v>16.83</v>
       </c>
       <c r="J58" s="55" t="n"/>
       <c r="K58" s="56" t="n"/>
@@ -4845,23 +4804,23 @@
         <v>44230</v>
       </c>
       <c r="Y58" s="45">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z58" s="60">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA58" s="60">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB58" s="61">
-        <f>D33</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC58" s="62">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD58" s="63" t="inlineStr">
@@ -4872,7 +4831,7 @@
     </row>
     <row r="59">
       <c r="A59" s="49" t="n">
-        <v>44077</v>
+        <v>44082</v>
       </c>
       <c r="B59" s="50" t="inlineStr">
         <is>
@@ -4888,10 +4847,10 @@
         <v>50</v>
       </c>
       <c r="E59" s="52" t="n">
-        <v>60.91</v>
+        <v>57.09</v>
       </c>
       <c r="F59" s="52" t="n">
-        <v>3045.66</v>
+        <v>2854.53</v>
       </c>
       <c r="G59" s="50" t="inlineStr">
         <is>
@@ -4899,10 +4858,10 @@
         </is>
       </c>
       <c r="H59" s="51" t="n">
-        <v>2.42</v>
+        <v>3.01</v>
       </c>
       <c r="I59" s="51" t="n">
-        <v>18.24</v>
+        <v>16.52</v>
       </c>
       <c r="J59" s="55" t="n"/>
       <c r="K59" s="56" t="n"/>
@@ -4924,23 +4883,23 @@
         <v>44230</v>
       </c>
       <c r="Y59" s="45">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z59" s="60">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA59" s="60">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB59" s="61">
-        <f>D34</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC59" s="62">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD59" s="63" t="inlineStr">
@@ -4951,7 +4910,7 @@
     </row>
     <row r="60">
       <c r="A60" s="49" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B60" s="50" t="inlineStr">
         <is>
@@ -4964,13 +4923,13 @@
         </is>
       </c>
       <c r="D60" s="51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E60" s="52" t="n">
-        <v>61.18</v>
+        <v>60.91</v>
       </c>
       <c r="F60" s="52" t="n">
-        <v>6117.71</v>
+        <v>3045.66</v>
       </c>
       <c r="G60" s="50" t="inlineStr">
         <is>
@@ -4978,10 +4937,10 @@
         </is>
       </c>
       <c r="H60" s="51" t="n">
-        <v>6.09</v>
+        <v>2.42</v>
       </c>
       <c r="I60" s="51" t="n">
-        <v>36.62</v>
+        <v>18.24</v>
       </c>
       <c r="J60" s="55" t="n"/>
       <c r="K60" s="56" t="n"/>
@@ -4997,29 +4956,29 @@
       <c r="U60" s="59" t="n"/>
       <c r="V60" s="59" t="n"/>
       <c r="W60" s="52" t="n">
-        <v>80.63</v>
+        <v>82.08</v>
       </c>
       <c r="X60" s="49" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="Y60" s="45">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z60" s="60">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA60" s="60">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB60" s="61">
-        <f>D35</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC60" s="62">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD60" s="63" t="inlineStr">
@@ -5030,7 +4989,7 @@
     </row>
     <row r="61">
       <c r="A61" s="49" t="n">
-        <v>44070</v>
+        <v>44074</v>
       </c>
       <c r="B61" s="50" t="inlineStr">
         <is>
@@ -5046,10 +5005,10 @@
         <v>100</v>
       </c>
       <c r="E61" s="52" t="n">
-        <v>62.73</v>
+        <v>61.18</v>
       </c>
       <c r="F61" s="52" t="n">
-        <v>6273.38</v>
+        <v>6117.71</v>
       </c>
       <c r="G61" s="50" t="inlineStr">
         <is>
@@ -5057,10 +5016,10 @@
         </is>
       </c>
       <c r="H61" s="51" t="n">
-        <v>5.63</v>
+        <v>6.09</v>
       </c>
       <c r="I61" s="51" t="n">
-        <v>37.75</v>
+        <v>36.62</v>
       </c>
       <c r="J61" s="55" t="n"/>
       <c r="K61" s="56" t="n"/>
@@ -5082,23 +5041,23 @@
         <v>44229</v>
       </c>
       <c r="Y61" s="45">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z61" s="60">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
         <v/>
       </c>
       <c r="AA61" s="60">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E35*D35)+Z35)</f>
         <v/>
       </c>
       <c r="AB61" s="61">
-        <f>D36</f>
+        <f>D35</f>
         <v/>
       </c>
       <c r="AC61" s="62">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD61" s="63" t="inlineStr">
@@ -5108,63 +5067,79 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="38" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B62" s="39" t="inlineStr">
+      <c r="A62" s="49" t="n">
+        <v>44070</v>
+      </c>
+      <c r="B62" s="50" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C62" s="39" t="inlineStr">
+      <c r="C62" s="50" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D62" s="40" t="n">
-        <v>300</v>
-      </c>
-      <c r="E62" s="41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F62" s="41" t="n">
-        <v>30</v>
-      </c>
-      <c r="G62" s="39" t="inlineStr">
+      <c r="D62" s="51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" s="52" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="F62" s="52" t="n">
+        <v>6273.38</v>
+      </c>
+      <c r="G62" s="50" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 15-MAY-2024</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H62" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="54">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K62" s="65" t="n"/>
-      <c r="L62" s="65" t="n"/>
+      <c r="H62" s="51" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I62" s="51" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="J62" s="55" t="n"/>
+      <c r="K62" s="56" t="n"/>
+      <c r="L62" s="56" t="n"/>
       <c r="M62" s="57" t="n"/>
       <c r="N62" s="58" t="n"/>
       <c r="O62" s="56" t="n"/>
-      <c r="P62" s="65" t="n"/>
+      <c r="P62" s="56" t="n"/>
       <c r="Q62" s="59" t="n"/>
       <c r="R62" s="59" t="n"/>
       <c r="S62" s="56" t="n"/>
-      <c r="T62" s="65" t="n"/>
+      <c r="T62" s="56" t="n"/>
       <c r="U62" s="59" t="n"/>
       <c r="V62" s="59" t="n"/>
-      <c r="W62" s="65" t="n"/>
-      <c r="X62" s="65" t="n"/>
-      <c r="Y62" s="65" t="n"/>
-      <c r="Z62" s="65" t="n"/>
-      <c r="AA62" s="65" t="n"/>
-      <c r="AB62" s="59" t="n"/>
-      <c r="AC62" s="59" t="n"/>
-      <c r="AD62" s="66" t="inlineStr">
+      <c r="W62" s="52" t="n">
+        <v>80.63</v>
+      </c>
+      <c r="X62" s="49" t="n">
+        <v>44229</v>
+      </c>
+      <c r="Y62" s="45">
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="60">
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <v/>
+      </c>
+      <c r="AA62" s="60">
+        <f>((E36*D36)+Z36)</f>
+        <v/>
+      </c>
+      <c r="AB62" s="61">
+        <f>D36</f>
+        <v/>
+      </c>
+      <c r="AC62" s="62">
+        <f>if(B36="DIV", F36,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="63" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
@@ -5172,7 +5147,7 @@
     </row>
     <row r="63">
       <c r="A63" s="38" t="n">
-        <v>45330</v>
+        <v>45427</v>
       </c>
       <c r="B63" s="39" t="inlineStr">
         <is>
@@ -5195,7 +5170,7 @@
       </c>
       <c r="G63" s="39" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 08-FEB-2024</t>
+          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 15-MAY-2024</t>
         </is>
       </c>
       <c r="H63" s="40" t="n">
@@ -5235,7 +5210,7 @@
     </row>
     <row r="64">
       <c r="A64" s="38" t="n">
-        <v>44028</v>
+        <v>45330</v>
       </c>
       <c r="B64" s="39" t="inlineStr">
         <is>
@@ -5248,17 +5223,17 @@
         </is>
       </c>
       <c r="D64" s="40" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E64" s="41" t="n">
-        <v>4.62</v>
+        <v>0.1</v>
       </c>
       <c r="F64" s="41" t="n">
-        <v>3237.5</v>
+        <v>30</v>
       </c>
       <c r="G64" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 16-JUL-2020</t>
+          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 08-FEB-2024</t>
         </is>
       </c>
       <c r="H64" s="40" t="n">
@@ -5298,7 +5273,7 @@
     </row>
     <row r="65">
       <c r="A65" s="38" t="n">
-        <v>43313</v>
+        <v>44028</v>
       </c>
       <c r="B65" s="39" t="inlineStr">
         <is>
@@ -5311,17 +5286,17 @@
         </is>
       </c>
       <c r="D65" s="40" t="n">
-        <v>230</v>
+        <v>700</v>
       </c>
       <c r="E65" s="41" t="n">
-        <v>2.5</v>
+        <v>4.62</v>
       </c>
       <c r="F65" s="41" t="n">
-        <v>575</v>
+        <v>3237.5</v>
       </c>
       <c r="G65" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.5000/- per share on 01-AUG-2018</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 16-JUL-2020</t>
         </is>
       </c>
       <c r="H65" s="40" t="n">
@@ -5361,7 +5336,7 @@
     </row>
     <row r="66">
       <c r="A66" s="38" t="n">
-        <v>43146</v>
+        <v>43313</v>
       </c>
       <c r="B66" s="39" t="inlineStr">
         <is>
@@ -5374,17 +5349,17 @@
         </is>
       </c>
       <c r="D66" s="40" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="E66" s="41" t="n">
         <v>2.5</v>
       </c>
       <c r="F66" s="41" t="n">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="G66" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.5000/- per share on 15-FEB-2018</t>
+          <t>Dividend of Rs.2.5000/- per share on 01-AUG-2018</t>
         </is>
       </c>
       <c r="H66" s="40" t="n">
@@ -5424,7 +5399,7 @@
     </row>
     <row r="67">
       <c r="A67" s="38" t="n">
-        <v>42947</v>
+        <v>43146</v>
       </c>
       <c r="B67" s="39" t="inlineStr">
         <is>
@@ -5437,17 +5412,17 @@
         </is>
       </c>
       <c r="D67" s="40" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E67" s="41" t="n">
         <v>2.5</v>
       </c>
       <c r="F67" s="41" t="n">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="G67" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.5000/- per share on 31-JUL-2017</t>
+          <t>Dividend of Rs.2.5000/- per share on 15-FEB-2018</t>
         </is>
       </c>
       <c r="H67" s="40" t="n">
@@ -5486,8 +5461,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="40" t="n">
-        <v>60</v>
+      <c r="A68" s="38" t="n">
+        <v>42947</v>
       </c>
       <c r="B68" s="39" t="inlineStr">
         <is>
@@ -5499,15 +5474,18 @@
           <t>Buy</t>
         </is>
       </c>
+      <c r="D68" s="40" t="n">
+        <v>60</v>
+      </c>
       <c r="E68" s="41" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F68" s="41" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G68" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.3.0000/- per share on 06-JUN-2017</t>
+          <t>Dividend of Rs.2.5000/- per share on 31-JUL-2017</t>
         </is>
       </c>
       <c r="H68" s="40" t="n">
@@ -5546,8 +5524,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="38" t="n">
-        <v>42768</v>
+      <c r="A69" s="40" t="n">
+        <v>60</v>
       </c>
       <c r="B69" s="39" t="inlineStr">
         <is>
@@ -5559,18 +5537,15 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D69" s="40" t="n">
-        <v>40</v>
-      </c>
       <c r="E69" s="41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="41" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G69" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.0000/- per share on 02-FEB-2017</t>
+          <t>Dividend of Rs.3.0000/- per share on 06-JUN-2017</t>
         </is>
       </c>
       <c r="H69" s="40" t="n">
@@ -5609,20 +5584,67 @@
       </c>
     </row>
     <row r="70">
-      <c r="E70" s="67" t="n"/>
-      <c r="F70" s="67" t="n"/>
-      <c r="G70" s="68" t="n"/>
-      <c r="J70" s="67" t="n"/>
-      <c r="K70" s="67" t="n"/>
-      <c r="L70" s="67" t="n"/>
-      <c r="M70" s="70" t="n"/>
-      <c r="W70" s="67" t="n"/>
-      <c r="X70" s="67" t="n"/>
-      <c r="Y70" s="67" t="n"/>
-      <c r="Z70" s="67" t="n"/>
-      <c r="AA70" s="67" t="n"/>
-      <c r="AB70" s="67" t="n"/>
-      <c r="AC70" s="67" t="n"/>
+      <c r="A70" s="38" t="n">
+        <v>42768</v>
+      </c>
+      <c r="B70" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C70" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D70" s="40" t="n">
+        <v>40</v>
+      </c>
+      <c r="E70" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="41" t="n">
+        <v>80</v>
+      </c>
+      <c r="G70" s="39" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.2.0000/- per share on 02-FEB-2017</t>
+        </is>
+      </c>
+      <c r="H70" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="54">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K70" s="65" t="n"/>
+      <c r="L70" s="65" t="n"/>
+      <c r="M70" s="57" t="n"/>
+      <c r="N70" s="58" t="n"/>
+      <c r="O70" s="56" t="n"/>
+      <c r="P70" s="65" t="n"/>
+      <c r="Q70" s="59" t="n"/>
+      <c r="R70" s="59" t="n"/>
+      <c r="S70" s="56" t="n"/>
+      <c r="T70" s="65" t="n"/>
+      <c r="U70" s="59" t="n"/>
+      <c r="V70" s="59" t="n"/>
+      <c r="W70" s="65" t="n"/>
+      <c r="X70" s="65" t="n"/>
+      <c r="Y70" s="65" t="n"/>
+      <c r="Z70" s="65" t="n"/>
+      <c r="AA70" s="65" t="n"/>
+      <c r="AB70" s="59" t="n"/>
+      <c r="AC70" s="59" t="n"/>
+      <c r="AD70" s="66" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="E71" s="67" t="n"/>
@@ -20543,6 +20565,7 @@
       <c r="J1003" s="67" t="n"/>
       <c r="K1003" s="67" t="n"/>
       <c r="L1003" s="67" t="n"/>
+      <c r="M1003" s="70" t="n"/>
       <c r="W1003" s="67" t="n"/>
       <c r="X1003" s="67" t="n"/>
       <c r="Y1003" s="67" t="n"/>
@@ -20790,6 +20813,21 @@
       <c r="AA1019" s="67" t="n"/>
       <c r="AB1019" s="67" t="n"/>
       <c r="AC1019" s="67" t="n"/>
+    </row>
+    <row r="1020">
+      <c r="E1020" s="67" t="n"/>
+      <c r="F1020" s="67" t="n"/>
+      <c r="G1020" s="68" t="n"/>
+      <c r="J1020" s="67" t="n"/>
+      <c r="K1020" s="67" t="n"/>
+      <c r="L1020" s="67" t="n"/>
+      <c r="W1020" s="67" t="n"/>
+      <c r="X1020" s="67" t="n"/>
+      <c r="Y1020" s="67" t="n"/>
+      <c r="Z1020" s="67" t="n"/>
+      <c r="AA1020" s="67" t="n"/>
+      <c r="AB1020" s="67" t="n"/>
+      <c r="AC1020" s="67" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$73"/>

--- a/dumps/Stocks/TATA Power.xlsx
+++ b/dumps/Stocks/TATA Power.xlsx
@@ -790,7 +790,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1020"/>
+  <dimension ref="A1:AP1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="5">
       <c r="A5" s="103" t="n">
-        <v>45961</v>
+        <v>46017</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1156,18 +1156,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>407.5</v>
+        <v>380.1</v>
       </c>
       <c r="F5" t="n">
-        <v>4095.4</v>
+        <v>3820</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20.4</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1175,12 +1175,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="102" t="n">
-        <v>46049</v>
+      <c r="A6" s="103" t="n">
+        <v>46015</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1192,26 +1192,27 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>346.8</v>
+        <v>382.25</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3492.55</v>
+        <v>3841.6</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>3.47</v>
+          <t>CN#252609755521</t>
+        </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>21.08</v>
+        <v>19.1</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="102" t="n">
-        <v>46038</v>
+      <c r="A7" s="103" t="n">
+        <v>45961</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1227,26 +1228,27 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>371.65</v>
+        <v>407.5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3742.84</v>
+        <v>4095.4</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>3.72</v>
+          <t>CN#252607606298</t>
+        </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>22.62</v>
+        <v>20.4</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="102" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1262,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>362.05</v>
+        <v>346.8</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3646.16</v>
+        <v>3492.55</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1273,15 +1275,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>22.03</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="102" t="n">
-        <v>46030</v>
+        <v>46038</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1297,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>381.1</v>
+        <v>371.65</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3838.04</v>
+        <v>3742.84</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1308,15 +1310,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.79</v>
+        <v>3.72</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23.25</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="102" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1332,10 +1334,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>392.5</v>
+        <v>362.05</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3952.78</v>
+        <v>3646.16</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1343,19 +1345,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.92</v>
+        <v>3.63</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>23.86</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="102" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1367,10 +1369,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>377.2</v>
+        <v>381.1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3798.83</v>
+        <v>3838.04</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1381,12 +1383,12 @@
         <v>3.79</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>23.04</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="102" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1399,13 +1401,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>380.1</v>
+        <v>392.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3445.15</v>
+        <v>3952.78</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1413,19 +1415,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.43</v>
+        <v>3.92</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>20.82</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="102" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1434,13 +1436,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>380.1</v>
+        <v>377.2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>382.79</v>
+        <v>3798.83</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1448,19 +1450,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2.31</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="102" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1469,13 +1471,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>382.25</v>
+        <v>380.1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1924.8</v>
+        <v>3445.15</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1483,15 +1485,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.9</v>
+        <v>3.43</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>11.65</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="102" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1504,13 +1506,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>382.25</v>
+        <v>380.1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1924.79</v>
+        <v>382.79</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1518,15 +1520,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.9</v>
+        <v>0.38</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>11.64</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="102" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1539,13 +1541,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>381.7</v>
+        <v>382.25</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3844.06</v>
+        <v>1924.8</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1553,19 +1555,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>23.26</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="102" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1574,13 +1576,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>374.6</v>
+        <v>382.25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3772.53</v>
+        <v>1924.79</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1588,19 +1590,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.76</v>
+        <v>1.9</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>22.77</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="102" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1612,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>379.65</v>
+        <v>381.7</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3823.43</v>
+        <v>3844.06</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1623,19 +1625,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>23.14</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="102" t="n">
-        <v>45981</v>
+        <v>46009</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1647,10 +1649,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>390.8</v>
+        <v>374.6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3935.65</v>
+        <v>3772.53</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1658,19 +1660,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.88</v>
+        <v>3.76</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>23.77</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="102" t="n">
-        <v>45979</v>
+        <v>46007</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1682,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>391.2</v>
+        <v>379.65</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3939.8</v>
+        <v>3823.43</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1693,15 +1695,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.92</v>
+        <v>3.79</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>23.88</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="102" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1714,13 +1716,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>391.15</v>
+        <v>390.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5908.93</v>
+        <v>3935.65</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1728,19 +1730,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>5.89</v>
+        <v>3.88</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>35.79</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="102" t="n">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1752,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>390.3</v>
+        <v>391.2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3930.64</v>
+        <v>3939.8</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1763,15 +1765,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3.88</v>
+        <v>3.92</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>23.76</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="102" t="n">
-        <v>45961</v>
+        <v>45978</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1784,13 +1786,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>407.5</v>
+        <v>391.15</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>410.38</v>
+        <v>5908.93</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1798,15 +1800,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.41</v>
+        <v>5.89</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>2.47</v>
+        <v>35.79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="102" t="n">
-        <v>45961</v>
+        <v>45974</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1819,13 +1821,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>407.5</v>
+        <v>390.3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>410.38</v>
+        <v>3930.64</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1833,10 +1835,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.41</v>
+        <v>3.88</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>2.47</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="25">
@@ -1889,13 +1891,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>820.79</v>
+        <v>410.38</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1903,10 +1905,10 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>4.97</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="27">
@@ -1924,13 +1926,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1231.16</v>
+        <v>410.38</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1938,10 +1940,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.22</v>
+        <v>0.41</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>7.44</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="28">
@@ -1959,13 +1961,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>410.38</v>
+        <v>820.79</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1973,10 +1975,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>2.47</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="29">
@@ -1994,13 +1996,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>407.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>410.38</v>
+        <v>1231.16</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2008,249 +2010,120 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.41</v>
+        <v>1.22</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>2.47</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="102" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>410.38</v>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="102" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>410.38</v>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="102" t="n">
         <v>45947</v>
       </c>
-      <c r="B30" s="0" t="inlineStr">
+      <c r="B32" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C30" s="0" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>396</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>3988.06</v>
       </c>
-      <c r="G30" s="0" t="inlineStr">
+      <c r="G32" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>3.97</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>24.09</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B31" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C31" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D31" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" s="41" t="n">
-        <v>398.81</v>
-      </c>
-      <c r="F31" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G31" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H31" s="40" t="n"/>
-      <c r="I31" s="40" t="n"/>
-      <c r="J31" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K31" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L31" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M31" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N31" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O31" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P31" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R31" s="42">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S31" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T31" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U31" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V31" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W31" s="46" t="n"/>
-      <c r="X31" s="46" t="n"/>
-      <c r="Y31" s="45">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z31" s="46" t="n"/>
-      <c r="AA31" s="46" t="n"/>
-      <c r="AB31" s="47" t="n"/>
-      <c r="AC31" s="42">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD31" s="48" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="38" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B32" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C32" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D32" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E32" s="41" t="n">
-        <v>402.99</v>
-      </c>
-      <c r="F32" s="41" t="n">
-        <v>4029.92</v>
-      </c>
-      <c r="G32" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H32" s="40" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I32" s="40" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="J32" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K32" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R32" s="42">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S32" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T32" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U32" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V32" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="46" t="n"/>
-      <c r="X32" s="46" t="n"/>
-      <c r="Y32" s="45">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="46" t="n"/>
-      <c r="AA32" s="46" t="n"/>
-      <c r="AB32" s="47" t="n"/>
-      <c r="AC32" s="42">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="48" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45855</v>
+        <v>45947</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2263,99 +2136,96 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>415.52</v>
-      </c>
-      <c r="F33" s="41" t="n">
-        <v>8310.49</v>
+        <v>398.81</v>
+      </c>
+      <c r="F33" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I33" s="40" t="n">
-        <v>50.24</v>
-      </c>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="40" t="n"/>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L33" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M33" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N33" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P33" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R33" s="42">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S33" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T33" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U33" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V33" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W33" s="46" t="n"/>
       <c r="X33" s="46" t="n"/>
       <c r="Y33" s="45">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z33" s="46" t="n"/>
       <c r="AA33" s="46" t="n"/>
       <c r="AB33" s="47" t="n"/>
       <c r="AC33" s="42">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD33" s="48" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45842</v>
+        <v>45863</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
@@ -2364,13 +2234,13 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>404.34</v>
+        <v>402.99</v>
       </c>
       <c r="F34" s="41" t="n">
-        <v>6065.16</v>
+        <v>4029.92</v>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
@@ -2378,85 +2248,85 @@
         </is>
       </c>
       <c r="H34" s="40" t="n">
-        <v>6.01</v>
+        <v>4.05</v>
       </c>
       <c r="I34" s="40" t="n">
-        <v>36.65</v>
+        <v>24.37</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L34" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M34" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N34" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P34" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R34" s="42">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S34" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T34" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U34" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V34" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W34" s="46" t="n"/>
       <c r="X34" s="46" t="n"/>
       <c r="Y34" s="45">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z34" s="46" t="n"/>
       <c r="AA34" s="46" t="n"/>
       <c r="AB34" s="47" t="n"/>
       <c r="AC34" s="42">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD34" s="48" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45828</v>
+        <v>45855</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -2465,95 +2335,95 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>2.25</v>
+        <v>415.52</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>652.5</v>
+        <v>8310.49</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.2500/- per share on Ex-Date: 20-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>0</v>
+        <v>50.24</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L35" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M35" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N35" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P35" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R35" s="42">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S35" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T35" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U35" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V35" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W35" s="46" t="n"/>
       <c r="X35" s="46" t="n"/>
       <c r="Y35" s="45">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z35" s="46" t="n"/>
       <c r="AA35" s="46" t="n"/>
       <c r="AB35" s="47" t="n"/>
       <c r="AC35" s="42">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD35" s="48" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45820</v>
+        <v>45842</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2566,13 +2436,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>413.86</v>
+        <v>404.34</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>4138.56</v>
+        <v>6065.16</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -2580,85 +2450,85 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>4.1</v>
+        <v>6.01</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>24.96</v>
+        <v>36.65</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L36" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M36" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N36" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P36" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R36" s="42">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S36" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T36" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U36" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V36" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W36" s="46" t="n"/>
       <c r="X36" s="46" t="n"/>
       <c r="Y36" s="45">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z36" s="46" t="n"/>
       <c r="AA36" s="46" t="n"/>
       <c r="AB36" s="47" t="n"/>
       <c r="AC36" s="42">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD36" s="48" t="n"/>
     </row>
     <row r="37" hidden="1" s="89">
       <c r="A37" s="38" t="n">
-        <v>45812</v>
+        <v>45828</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2667,95 +2537,95 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>394.08</v>
+        <v>2.25</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>3940.77</v>
+        <v>652.5</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.2500/- per share on Ex-Date: 20-JUN-2025</t>
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>23.84</v>
+        <v>0</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L37" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M37" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N37" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P37" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R37" s="42">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S37" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T37" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U37" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V37" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W37" s="46" t="n"/>
       <c r="X37" s="46" t="n"/>
       <c r="Y37" s="45">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z37" s="46" t="n"/>
       <c r="AA37" s="46" t="n"/>
       <c r="AB37" s="47" t="n"/>
       <c r="AC37" s="42">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD37" s="48" t="n"/>
     </row>
     <row r="38" hidden="1" s="89">
       <c r="A38" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
@@ -2771,10 +2641,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>398.81</v>
+        <v>413.86</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>3988.06</v>
+        <v>4138.56</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
@@ -2782,81 +2652,81 @@
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>3.96</v>
+        <v>4.1</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>24.1</v>
+        <v>24.96</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L38" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M38" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N38" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P38" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R38" s="42">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S38" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T38" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U38" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V38" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W38" s="46" t="n"/>
       <c r="X38" s="46" t="n"/>
       <c r="Y38" s="45">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z38" s="46" t="n"/>
       <c r="AA38" s="46" t="n"/>
       <c r="AB38" s="47" t="n"/>
       <c r="AC38" s="42">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD38" s="48" t="n"/>
     </row>
     <row r="39" hidden="1" s="89">
       <c r="A39" s="38" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B39" s="39" t="inlineStr">
         <is>
@@ -2869,13 +2739,13 @@
         </is>
       </c>
       <c r="D39" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39" s="41" t="n">
-        <v>398.21</v>
+        <v>394.08</v>
       </c>
       <c r="F39" s="41" t="n">
-        <v>7964.14</v>
+        <v>3940.77</v>
       </c>
       <c r="G39" s="39" t="inlineStr">
         <is>
@@ -2883,81 +2753,81 @@
         </is>
       </c>
       <c r="H39" s="40" t="n">
-        <v>7.95</v>
+        <v>3.93</v>
       </c>
       <c r="I39" s="40" t="n">
-        <v>48.19</v>
+        <v>23.84</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L39" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M39" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N39" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P39" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R39" s="42">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S39" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T39" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U39" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V39" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W39" s="46" t="n"/>
       <c r="X39" s="46" t="n"/>
       <c r="Y39" s="45">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z39" s="46" t="n"/>
       <c r="AA39" s="46" t="n"/>
       <c r="AB39" s="47" t="n"/>
       <c r="AC39" s="42">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD39" s="48" t="n"/>
     </row>
     <row r="40" hidden="1" s="89">
       <c r="A40" s="38" t="n">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="B40" s="39" t="inlineStr">
         <is>
@@ -2976,7 +2846,7 @@
         <v>398.81</v>
       </c>
       <c r="F40" s="41" t="n">
-        <v>3988.11</v>
+        <v>3988.06</v>
       </c>
       <c r="G40" s="39" t="inlineStr">
         <is>
@@ -2984,282 +2854,283 @@
         </is>
       </c>
       <c r="H40" s="40" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="I40" s="40" t="n">
-        <v>24.13</v>
+        <v>24.1</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L40" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M40" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N40" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P40" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R40" s="42">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S40" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T40" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U40" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V40" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W40" s="46" t="n"/>
       <c r="X40" s="46" t="n"/>
       <c r="Y40" s="45">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z40" s="46" t="n"/>
       <c r="AA40" s="46" t="n"/>
       <c r="AB40" s="47" t="n"/>
       <c r="AC40" s="42">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD40" s="48" t="n"/>
     </row>
     <row r="41" hidden="1" s="89">
-      <c r="A41" s="49" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B41" s="50" t="inlineStr">
+      <c r="A41" s="38" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B41" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C41" s="50" t="inlineStr">
+      <c r="C41" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="51" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" s="52" t="n">
-        <v>361.34</v>
-      </c>
-      <c r="F41" s="53">
-        <f>E15*D15 + sum(H15:I15)</f>
-        <v/>
-      </c>
-      <c r="G41" s="50" t="inlineStr">
+      <c r="D41" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" s="41" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F41" s="41" t="n">
+        <v>7964.14</v>
+      </c>
+      <c r="G41" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="51" t="n"/>
-      <c r="I41" s="51" t="n">
-        <v>25.4</v>
+      <c r="H41" s="40" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="I41" s="40" t="n">
+        <v>48.19</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L41" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M41" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N41" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P41" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R41" s="42">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S41" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T41" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U41" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V41" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W41" s="46" t="n"/>
       <c r="X41" s="46" t="n"/>
       <c r="Y41" s="45">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z41" s="46" t="n"/>
       <c r="AA41" s="46" t="n"/>
       <c r="AB41" s="47" t="n"/>
       <c r="AC41" s="42">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD41" s="48" t="n"/>
     </row>
     <row r="42" hidden="1" s="89">
-      <c r="A42" s="49" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B42" s="50" t="inlineStr">
+      <c r="A42" s="38" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B42" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C42" s="50" t="inlineStr">
+      <c r="C42" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D42" s="51" t="n">
-        <v>20</v>
-      </c>
-      <c r="E42" s="52" t="n">
-        <v>355.35</v>
-      </c>
-      <c r="F42" s="52" t="n">
-        <v>7106.95</v>
-      </c>
-      <c r="G42" s="50" t="inlineStr">
+      <c r="D42" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" s="41" t="n">
+        <v>398.81</v>
+      </c>
+      <c r="F42" s="41" t="n">
+        <v>3988.11</v>
+      </c>
+      <c r="G42" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="51" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="I42" s="51" t="n">
-        <v>42.86</v>
+      <c r="H42" s="40" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="I42" s="40" t="n">
+        <v>24.13</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L42" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M42" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N42" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P42" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R42" s="42">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S42" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T42" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U42" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V42" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W42" s="46" t="n"/>
       <c r="X42" s="46" t="n"/>
       <c r="Y42" s="45">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z42" s="46" t="n"/>
       <c r="AA42" s="46" t="n"/>
       <c r="AB42" s="47" t="n"/>
       <c r="AC42" s="42">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD42" s="48" t="n"/>
     </row>
     <row r="43" hidden="1" s="89">
       <c r="A43" s="49" t="n">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B43" s="50" t="inlineStr">
         <is>
@@ -3272,95 +3143,94 @@
         </is>
       </c>
       <c r="D43" s="51" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E43" s="52" t="n">
-        <v>356.91</v>
-      </c>
-      <c r="F43" s="52" t="n">
-        <v>713.8200000000001</v>
+        <v>361.34</v>
+      </c>
+      <c r="F43" s="53">
+        <f>E15*D15 + sum(H15:I15)</f>
+        <v/>
       </c>
       <c r="G43" s="50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="51" t="n">
-        <v>0.71</v>
-      </c>
+      <c r="H43" s="51" t="n"/>
       <c r="I43" s="51" t="n">
-        <v>4.31</v>
+        <v>25.4</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L43" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M43" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N43" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P43" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R43" s="42">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S43" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T43" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U43" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V43" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W43" s="46" t="n"/>
       <c r="X43" s="46" t="n"/>
       <c r="Y43" s="45">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z43" s="46" t="n"/>
       <c r="AA43" s="46" t="n"/>
       <c r="AB43" s="47" t="n"/>
       <c r="AC43" s="42">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD43" s="48" t="n"/>
     </row>
     <row r="44" hidden="1" s="89">
       <c r="A44" s="49" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B44" s="50" t="inlineStr">
         <is>
@@ -3373,13 +3243,13 @@
         </is>
       </c>
       <c r="D44" s="51" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44" s="52" t="n">
-        <v>356.91</v>
+        <v>355.35</v>
       </c>
       <c r="F44" s="52" t="n">
-        <v>6424.37</v>
+        <v>7106.95</v>
       </c>
       <c r="G44" s="50" t="inlineStr">
         <is>
@@ -3387,74 +3257,74 @@
         </is>
       </c>
       <c r="H44" s="51" t="n">
-        <v>6.37</v>
+        <v>7.09</v>
       </c>
       <c r="I44" s="51" t="n">
-        <v>38.8</v>
+        <v>42.86</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L44" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M44" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N44" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P44" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R44" s="42">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S44" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T44" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U44" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V44" s="46">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W44" s="46" t="n"/>
       <c r="X44" s="46" t="n"/>
       <c r="Y44" s="45">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z44" s="46" t="n"/>
       <c r="AA44" s="46" t="n"/>
       <c r="AB44" s="47" t="n"/>
       <c r="AC44" s="42">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD44" s="48" t="n"/>
@@ -3474,13 +3344,13 @@
         </is>
       </c>
       <c r="D45" s="51" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E45" s="52" t="n">
         <v>356.91</v>
       </c>
       <c r="F45" s="52" t="n">
-        <v>3569.07</v>
+        <v>713.8200000000001</v>
       </c>
       <c r="G45" s="50" t="inlineStr">
         <is>
@@ -3488,81 +3358,81 @@
         </is>
       </c>
       <c r="H45" s="51" t="n">
-        <v>3.53</v>
+        <v>0.71</v>
       </c>
       <c r="I45" s="51" t="n">
-        <v>21.54</v>
+        <v>4.31</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L45" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M45" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N45" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P45" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R45" s="42">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S45" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T45" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U45" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V45" s="46">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W45" s="46" t="n"/>
       <c r="X45" s="46" t="n"/>
       <c r="Y45" s="45">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z45" s="46" t="n"/>
       <c r="AA45" s="46" t="n"/>
       <c r="AB45" s="47" t="n"/>
       <c r="AC45" s="42">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD45" s="48" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="49" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B46" s="50" t="inlineStr">
         <is>
@@ -3575,13 +3445,13 @@
         </is>
       </c>
       <c r="D46" s="51" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E46" s="52" t="n">
-        <v>330.87</v>
+        <v>356.91</v>
       </c>
       <c r="F46" s="52" t="n">
-        <v>18198.12</v>
+        <v>6424.37</v>
       </c>
       <c r="G46" s="50" t="inlineStr">
         <is>
@@ -3589,81 +3459,81 @@
         </is>
       </c>
       <c r="H46" s="51" t="n">
-        <v>18.04</v>
+        <v>6.37</v>
       </c>
       <c r="I46" s="51" t="n">
-        <v>109.83</v>
+        <v>38.8</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L46" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M46" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N46" s="44">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P46" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R46" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S46" s="45">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T46" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U46" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V46" s="46">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W46" s="46" t="n"/>
       <c r="X46" s="46" t="n"/>
       <c r="Y46" s="45">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z46" s="46" t="n"/>
       <c r="AA46" s="46" t="n"/>
       <c r="AB46" s="47" t="n"/>
       <c r="AC46" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD46" s="48" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="49" t="n">
-        <v>45702</v>
+        <v>45712</v>
       </c>
       <c r="B47" s="50" t="inlineStr">
         <is>
@@ -3676,13 +3546,13 @@
         </is>
       </c>
       <c r="D47" s="51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E47" s="52" t="n">
-        <v>340.95</v>
+        <v>356.91</v>
       </c>
       <c r="F47" s="52" t="n">
-        <v>10228.37</v>
+        <v>3569.07</v>
       </c>
       <c r="G47" s="50" t="inlineStr">
         <is>
@@ -3690,81 +3560,81 @@
         </is>
       </c>
       <c r="H47" s="51" t="n">
-        <v>10.17</v>
+        <v>3.53</v>
       </c>
       <c r="I47" s="51" t="n">
-        <v>61.7</v>
+        <v>21.54</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L47" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M47" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N47" s="44">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P47" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R47" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S47" s="45">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T47" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U47" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V47" s="46">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W47" s="46" t="n"/>
       <c r="X47" s="46" t="n"/>
       <c r="Y47" s="45">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z47" s="46" t="n"/>
       <c r="AA47" s="46" t="n"/>
       <c r="AB47" s="47" t="n"/>
       <c r="AC47" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD47" s="48" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="49" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B48" s="50" t="inlineStr">
         <is>
@@ -3777,13 +3647,13 @@
         </is>
       </c>
       <c r="D48" s="51" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E48" s="52" t="n">
-        <v>352.33</v>
+        <v>330.87</v>
       </c>
       <c r="F48" s="52" t="n">
-        <v>3523.3</v>
+        <v>18198.12</v>
       </c>
       <c r="G48" s="50" t="inlineStr">
         <is>
@@ -3791,81 +3661,81 @@
         </is>
       </c>
       <c r="H48" s="51" t="n">
-        <v>3.5</v>
+        <v>18.04</v>
       </c>
       <c r="I48" s="51" t="n">
-        <v>21.3</v>
+        <v>109.83</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L48" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M48" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N48" s="44">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P48" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R48" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S48" s="45">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T48" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U48" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V48" s="46">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W48" s="46" t="n"/>
       <c r="X48" s="46" t="n"/>
       <c r="Y48" s="45">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z48" s="46" t="n"/>
       <c r="AA48" s="46" t="n"/>
       <c r="AB48" s="47" t="n"/>
       <c r="AC48" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD48" s="48" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="49" t="n">
-        <v>45694</v>
+        <v>45702</v>
       </c>
       <c r="B49" s="50" t="inlineStr">
         <is>
@@ -3878,13 +3748,13 @@
         </is>
       </c>
       <c r="D49" s="51" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E49" s="52" t="n">
-        <v>369.09</v>
+        <v>340.95</v>
       </c>
       <c r="F49" s="52" t="n">
-        <v>1845.47</v>
+        <v>10228.37</v>
       </c>
       <c r="G49" s="50" t="inlineStr">
         <is>
@@ -3892,81 +3762,81 @@
         </is>
       </c>
       <c r="H49" s="51" t="n">
-        <v>1.83</v>
+        <v>10.17</v>
       </c>
       <c r="I49" s="51" t="n">
-        <v>11.14</v>
+        <v>61.7</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L49" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M49" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N49" s="44">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P49" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R49" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S49" s="45">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T49" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U49" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V49" s="46">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W49" s="46" t="n"/>
       <c r="X49" s="46" t="n"/>
       <c r="Y49" s="45">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z49" s="46" t="n"/>
       <c r="AA49" s="46" t="n"/>
       <c r="AB49" s="47" t="n"/>
       <c r="AC49" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD49" s="48" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="49" t="n">
-        <v>45687</v>
+        <v>45699</v>
       </c>
       <c r="B50" s="50" t="inlineStr">
         <is>
@@ -3979,13 +3849,13 @@
         </is>
       </c>
       <c r="D50" s="51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E50" s="52" t="n">
-        <v>358.57</v>
+        <v>352.33</v>
       </c>
       <c r="F50" s="52" t="n">
-        <v>8964.34</v>
+        <v>3523.3</v>
       </c>
       <c r="G50" s="50" t="inlineStr">
         <is>
@@ -3993,81 +3863,81 @@
         </is>
       </c>
       <c r="H50" s="51" t="n">
-        <v>8.890000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I50" s="51" t="n">
-        <v>54.2</v>
+        <v>21.3</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L50" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M50" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N50" s="44">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P50" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R50" s="42">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S50" s="45">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T50" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U50" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V50" s="46">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W50" s="46" t="n"/>
       <c r="X50" s="46" t="n"/>
       <c r="Y50" s="45">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z50" s="46" t="n"/>
       <c r="AA50" s="46" t="n"/>
       <c r="AB50" s="47" t="n"/>
       <c r="AC50" s="42">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD50" s="48" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="49" t="n">
-        <v>45687</v>
+        <v>45694</v>
       </c>
       <c r="B51" s="50" t="inlineStr">
         <is>
@@ -4083,10 +3953,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="52" t="n">
-        <v>358.58</v>
+        <v>369.09</v>
       </c>
       <c r="F51" s="52" t="n">
-        <v>1792.88</v>
+        <v>1845.47</v>
       </c>
       <c r="G51" s="50" t="inlineStr">
         <is>
@@ -4094,81 +3964,81 @@
         </is>
       </c>
       <c r="H51" s="51" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="I51" s="51" t="n">
-        <v>10.85</v>
+        <v>11.14</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L51" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M51" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N51" s="44">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P51" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R51" s="42">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S51" s="45">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T51" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U51" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V51" s="46">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W51" s="46" t="n"/>
       <c r="X51" s="46" t="n"/>
       <c r="Y51" s="45">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z51" s="46" t="n"/>
       <c r="AA51" s="46" t="n"/>
       <c r="AB51" s="47" t="n"/>
       <c r="AC51" s="42">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD51" s="48" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="49" t="n">
-        <v>45621</v>
+        <v>45687</v>
       </c>
       <c r="B52" s="50" t="inlineStr">
         <is>
@@ -4181,13 +4051,13 @@
         </is>
       </c>
       <c r="D52" s="51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E52" s="52" t="n">
-        <v>423.29</v>
+        <v>358.57</v>
       </c>
       <c r="F52" s="52" t="n">
-        <v>4232.86</v>
+        <v>8964.34</v>
       </c>
       <c r="G52" s="50" t="inlineStr">
         <is>
@@ -4195,85 +4065,85 @@
         </is>
       </c>
       <c r="H52" s="51" t="n">
-        <v>4.26</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I52" s="51" t="n">
-        <v>25.6</v>
+        <v>54.2</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L52" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M52" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N52" s="44">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P52" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R52" s="42">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S52" s="45">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T52" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U52" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V52" s="46">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W52" s="46" t="n"/>
       <c r="X52" s="46" t="n"/>
       <c r="Y52" s="45">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z52" s="46" t="n"/>
       <c r="AA52" s="46" t="n"/>
       <c r="AB52" s="47" t="n"/>
       <c r="AC52" s="42">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD52" s="48" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="49" t="n">
-        <v>45477</v>
+        <v>45687</v>
       </c>
       <c r="B53" s="50" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C53" s="50" t="inlineStr">
@@ -4282,95 +4152,95 @@
         </is>
       </c>
       <c r="D53" s="51" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E53" s="52" t="n">
-        <v>2</v>
+        <v>358.58</v>
       </c>
       <c r="F53" s="52" t="n">
-        <v>60</v>
+        <v>1792.88</v>
       </c>
       <c r="G53" s="50" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.0000/- per share on Ex-Date: 04-JUL-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H53" s="51" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I53" s="51" t="n">
-        <v>0</v>
+        <v>10.85</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L53" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M53" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N53" s="44">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P53" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R53" s="42">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S53" s="45">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T53" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U53" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V53" s="46">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W53" s="46" t="n"/>
       <c r="X53" s="46" t="n"/>
       <c r="Y53" s="45">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z53" s="46" t="n"/>
       <c r="AA53" s="46" t="n"/>
       <c r="AB53" s="47" t="n"/>
       <c r="AC53" s="42">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD53" s="48" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="49" t="n">
-        <v>45352</v>
+        <v>45621</v>
       </c>
       <c r="B54" s="50" t="inlineStr">
         <is>
@@ -4383,13 +4253,13 @@
         </is>
       </c>
       <c r="D54" s="51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E54" s="52" t="n">
-        <v>378.42</v>
+        <v>423.29</v>
       </c>
       <c r="F54" s="52" t="n">
-        <v>11352.5</v>
+        <v>4232.86</v>
       </c>
       <c r="G54" s="50" t="inlineStr">
         <is>
@@ -4397,182 +4267,182 @@
         </is>
       </c>
       <c r="H54" s="51" t="n">
-        <v>11.29</v>
+        <v>4.26</v>
       </c>
       <c r="I54" s="51" t="n">
-        <v>68.70999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L54" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M54" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N54" s="44">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P54" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R54" s="42">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S54" s="45">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T54" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U54" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V54" s="46">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W54" s="46" t="n"/>
       <c r="X54" s="46" t="n"/>
       <c r="Y54" s="45">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z54" s="46" t="n"/>
       <c r="AA54" s="46" t="n"/>
       <c r="AB54" s="47" t="n"/>
       <c r="AC54" s="42">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD54" s="48" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="49" t="n">
-        <v>44230</v>
+        <v>45477</v>
       </c>
       <c r="B55" s="50" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C55" s="50" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D55" s="51" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E55" s="52" t="n">
-        <v>82.08</v>
+        <v>2</v>
       </c>
       <c r="F55" s="52" t="n">
-        <v>16416.12</v>
+        <v>60</v>
       </c>
       <c r="G55" s="50" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.0000/- per share on Ex-Date: 04-JUL-2024</t>
         </is>
       </c>
       <c r="H55" s="51" t="n">
-        <v>16.51</v>
+        <v>0</v>
       </c>
       <c r="I55" s="51" t="n">
-        <v>97.37</v>
-      </c>
-      <c r="J55" s="54">
+        <v>0</v>
+      </c>
+      <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L55" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M55" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N55" s="44">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P55" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R55" s="42">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S55" s="45">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T55" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U55" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V55" s="46">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W55" s="46" t="n"/>
       <c r="X55" s="46" t="n"/>
       <c r="Y55" s="45">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z55" s="46" t="n"/>
       <c r="AA55" s="46" t="n"/>
       <c r="AB55" s="47" t="n"/>
       <c r="AC55" s="42">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD55" s="48" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="49" t="n">
-        <v>44229</v>
+        <v>45352</v>
       </c>
       <c r="B56" s="50" t="inlineStr">
         <is>
@@ -4581,17 +4451,17 @@
       </c>
       <c r="C56" s="50" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D56" s="51" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E56" s="52" t="n">
-        <v>80.63</v>
+        <v>378.42</v>
       </c>
       <c r="F56" s="52" t="n">
-        <v>16126.4</v>
+        <v>11352.5</v>
       </c>
       <c r="G56" s="50" t="inlineStr">
         <is>
@@ -4599,81 +4469,81 @@
         </is>
       </c>
       <c r="H56" s="51" t="n">
-        <v>16.24</v>
+        <v>11.29</v>
       </c>
       <c r="I56" s="51" t="n">
-        <v>97.36</v>
-      </c>
-      <c r="J56" s="54">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L56" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M56" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N56" s="44">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P56" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R56" s="42">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S56" s="45">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T56" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U56" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V56" s="46">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W56" s="46" t="n"/>
       <c r="X56" s="46" t="n"/>
       <c r="Y56" s="45">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z56" s="46" t="n"/>
       <c r="AA56" s="46" t="n"/>
       <c r="AB56" s="47" t="n"/>
       <c r="AC56" s="42">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD56" s="48" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="49" t="n">
-        <v>44138</v>
+        <v>44230</v>
       </c>
       <c r="B57" s="50" t="inlineStr">
         <is>
@@ -4682,17 +4552,17 @@
       </c>
       <c r="C57" s="50" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D57" s="51" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E57" s="52" t="n">
-        <v>53.47</v>
+        <v>82.08</v>
       </c>
       <c r="F57" s="52" t="n">
-        <v>2673.71</v>
+        <v>16416.12</v>
       </c>
       <c r="G57" s="50" t="inlineStr">
         <is>
@@ -4700,59 +4570,81 @@
         </is>
       </c>
       <c r="H57" s="51" t="n">
-        <v>2.5</v>
+        <v>16.51</v>
       </c>
       <c r="I57" s="51" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="J57" s="55" t="n"/>
-      <c r="K57" s="56" t="n"/>
-      <c r="L57" s="56" t="n"/>
-      <c r="M57" s="57" t="n"/>
-      <c r="N57" s="58" t="n"/>
-      <c r="O57" s="56" t="n"/>
-      <c r="P57" s="56" t="n"/>
-      <c r="Q57" s="59" t="n"/>
-      <c r="R57" s="59" t="n"/>
-      <c r="S57" s="56" t="n"/>
-      <c r="T57" s="56" t="n"/>
-      <c r="U57" s="59" t="n"/>
-      <c r="V57" s="59" t="n"/>
-      <c r="W57" s="52" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="X57" s="49" t="n">
-        <v>44230</v>
-      </c>
+        <v>97.37</v>
+      </c>
+      <c r="J57" s="54">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K57" s="43">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="42">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="42">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="44">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="43">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="42">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="42">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="42">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="45">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="46">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="46">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="46">
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="46" t="n"/>
+      <c r="X57" s="46" t="n"/>
       <c r="Y57" s="45">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="60">
-        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
-        <v/>
-      </c>
-      <c r="AA57" s="60">
-        <f>((E31*D31)+Z31)</f>
-        <v/>
-      </c>
-      <c r="AB57" s="61">
-        <f>D31</f>
-        <v/>
-      </c>
-      <c r="AC57" s="62">
-        <f>if(B31="DIV", F31,"")</f>
-        <v/>
-      </c>
-      <c r="AD57" s="63" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="46" t="n"/>
+      <c r="AA57" s="46" t="n"/>
+      <c r="AB57" s="47" t="n"/>
+      <c r="AC57" s="42">
+        <f>if(B29="DIV", F29,"")</f>
+        <v/>
+      </c>
+      <c r="AD57" s="48" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="49" t="n">
-        <v>44084</v>
+        <v>44229</v>
       </c>
       <c r="B58" s="50" t="inlineStr">
         <is>
@@ -4761,17 +4653,17 @@
       </c>
       <c r="C58" s="50" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D58" s="51" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E58" s="52" t="n">
-        <v>56.89</v>
+        <v>80.63</v>
       </c>
       <c r="F58" s="52" t="n">
-        <v>2844.41</v>
+        <v>16126.4</v>
       </c>
       <c r="G58" s="50" t="inlineStr">
         <is>
@@ -4779,59 +4671,81 @@
         </is>
       </c>
       <c r="H58" s="51" t="n">
-        <v>2.58</v>
+        <v>16.24</v>
       </c>
       <c r="I58" s="51" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="J58" s="55" t="n"/>
-      <c r="K58" s="56" t="n"/>
-      <c r="L58" s="56" t="n"/>
-      <c r="M58" s="57" t="n"/>
-      <c r="N58" s="58" t="n"/>
-      <c r="O58" s="56" t="n"/>
-      <c r="P58" s="56" t="n"/>
-      <c r="Q58" s="59" t="n"/>
-      <c r="R58" s="59" t="n"/>
-      <c r="S58" s="56" t="n"/>
-      <c r="T58" s="56" t="n"/>
-      <c r="U58" s="59" t="n"/>
-      <c r="V58" s="59" t="n"/>
-      <c r="W58" s="52" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="X58" s="49" t="n">
-        <v>44230</v>
-      </c>
+        <v>97.36</v>
+      </c>
+      <c r="J58" s="54">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K58" s="43">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="44">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="43">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="42">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="45">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="46">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="46">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="46">
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="46" t="n"/>
+      <c r="X58" s="46" t="n"/>
       <c r="Y58" s="45">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="60">
-        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="60">
-        <f>((E32*D32)+Z32)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="61">
-        <f>D32</f>
-        <v/>
-      </c>
-      <c r="AC58" s="62">
-        <f>if(B32="DIV", F32,"")</f>
-        <v/>
-      </c>
-      <c r="AD58" s="63" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="46" t="n"/>
+      <c r="AA58" s="46" t="n"/>
+      <c r="AB58" s="47" t="n"/>
+      <c r="AC58" s="42">
+        <f>if(B30="DIV", F30,"")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="48" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="49" t="n">
-        <v>44082</v>
+        <v>44138</v>
       </c>
       <c r="B59" s="50" t="inlineStr">
         <is>
@@ -4847,10 +4761,10 @@
         <v>50</v>
       </c>
       <c r="E59" s="52" t="n">
-        <v>57.09</v>
+        <v>53.47</v>
       </c>
       <c r="F59" s="52" t="n">
-        <v>2854.53</v>
+        <v>2673.71</v>
       </c>
       <c r="G59" s="50" t="inlineStr">
         <is>
@@ -4858,10 +4772,10 @@
         </is>
       </c>
       <c r="H59" s="51" t="n">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="I59" s="51" t="n">
-        <v>16.52</v>
+        <v>16.21</v>
       </c>
       <c r="J59" s="55" t="n"/>
       <c r="K59" s="56" t="n"/>
@@ -4883,23 +4797,23 @@
         <v>44230</v>
       </c>
       <c r="Y59" s="45">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z59" s="60">
-        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
+        <f>(1-Index!$F$2*2)*((W31*D31)-(E31*D31))</f>
         <v/>
       </c>
       <c r="AA59" s="60">
-        <f>((E33*D33)+Z33)</f>
+        <f>((E31*D31)+Z31)</f>
         <v/>
       </c>
       <c r="AB59" s="61">
-        <f>D33</f>
+        <f>D31</f>
         <v/>
       </c>
       <c r="AC59" s="62">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD59" s="63" t="inlineStr">
@@ -4910,7 +4824,7 @@
     </row>
     <row r="60">
       <c r="A60" s="49" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B60" s="50" t="inlineStr">
         <is>
@@ -4926,10 +4840,10 @@
         <v>50</v>
       </c>
       <c r="E60" s="52" t="n">
-        <v>60.91</v>
+        <v>56.89</v>
       </c>
       <c r="F60" s="52" t="n">
-        <v>3045.66</v>
+        <v>2844.41</v>
       </c>
       <c r="G60" s="50" t="inlineStr">
         <is>
@@ -4937,10 +4851,10 @@
         </is>
       </c>
       <c r="H60" s="51" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="I60" s="51" t="n">
-        <v>18.24</v>
+        <v>16.83</v>
       </c>
       <c r="J60" s="55" t="n"/>
       <c r="K60" s="56" t="n"/>
@@ -4962,23 +4876,23 @@
         <v>44230</v>
       </c>
       <c r="Y60" s="45">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z60" s="60">
-        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
+        <f>(1-Index!$F$2*2)*((W32*D32)-(E32*D32))</f>
         <v/>
       </c>
       <c r="AA60" s="60">
-        <f>((E34*D34)+Z34)</f>
+        <f>((E32*D32)+Z32)</f>
         <v/>
       </c>
       <c r="AB60" s="61">
-        <f>D34</f>
+        <f>D32</f>
         <v/>
       </c>
       <c r="AC60" s="62">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD60" s="63" t="inlineStr">
@@ -4989,7 +4903,7 @@
     </row>
     <row r="61">
       <c r="A61" s="49" t="n">
-        <v>44074</v>
+        <v>44082</v>
       </c>
       <c r="B61" s="50" t="inlineStr">
         <is>
@@ -5002,13 +4916,13 @@
         </is>
       </c>
       <c r="D61" s="51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E61" s="52" t="n">
-        <v>61.18</v>
+        <v>57.09</v>
       </c>
       <c r="F61" s="52" t="n">
-        <v>6117.71</v>
+        <v>2854.53</v>
       </c>
       <c r="G61" s="50" t="inlineStr">
         <is>
@@ -5016,10 +4930,10 @@
         </is>
       </c>
       <c r="H61" s="51" t="n">
-        <v>6.09</v>
+        <v>3.01</v>
       </c>
       <c r="I61" s="51" t="n">
-        <v>36.62</v>
+        <v>16.52</v>
       </c>
       <c r="J61" s="55" t="n"/>
       <c r="K61" s="56" t="n"/>
@@ -5035,29 +4949,29 @@
       <c r="U61" s="59" t="n"/>
       <c r="V61" s="59" t="n"/>
       <c r="W61" s="52" t="n">
-        <v>80.63</v>
+        <v>82.08</v>
       </c>
       <c r="X61" s="49" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="Y61" s="45">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z61" s="60">
-        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <f>(1-Index!$F$2*2)*((W33*D33)-(E33*D33))</f>
         <v/>
       </c>
       <c r="AA61" s="60">
-        <f>((E35*D35)+Z35)</f>
+        <f>((E33*D33)+Z33)</f>
         <v/>
       </c>
       <c r="AB61" s="61">
-        <f>D35</f>
+        <f>D33</f>
         <v/>
       </c>
       <c r="AC61" s="62">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD61" s="63" t="inlineStr">
@@ -5068,7 +4982,7 @@
     </row>
     <row r="62">
       <c r="A62" s="49" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B62" s="50" t="inlineStr">
         <is>
@@ -5081,13 +4995,13 @@
         </is>
       </c>
       <c r="D62" s="51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E62" s="52" t="n">
-        <v>62.73</v>
+        <v>60.91</v>
       </c>
       <c r="F62" s="52" t="n">
-        <v>6273.38</v>
+        <v>3045.66</v>
       </c>
       <c r="G62" s="50" t="inlineStr">
         <is>
@@ -5095,10 +5009,10 @@
         </is>
       </c>
       <c r="H62" s="51" t="n">
-        <v>5.63</v>
+        <v>2.42</v>
       </c>
       <c r="I62" s="51" t="n">
-        <v>37.75</v>
+        <v>18.24</v>
       </c>
       <c r="J62" s="55" t="n"/>
       <c r="K62" s="56" t="n"/>
@@ -5114,29 +5028,29 @@
       <c r="U62" s="59" t="n"/>
       <c r="V62" s="59" t="n"/>
       <c r="W62" s="52" t="n">
-        <v>80.63</v>
+        <v>82.08</v>
       </c>
       <c r="X62" s="49" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="Y62" s="45">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z62" s="60">
-        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <f>(1-Index!$F$2*2)*((W34*D34)-(E34*D34))</f>
         <v/>
       </c>
       <c r="AA62" s="60">
-        <f>((E36*D36)+Z36)</f>
+        <f>((E34*D34)+Z34)</f>
         <v/>
       </c>
       <c r="AB62" s="61">
-        <f>D36</f>
+        <f>D34</f>
         <v/>
       </c>
       <c r="AC62" s="62">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD62" s="63" t="inlineStr">
@@ -5146,126 +5060,158 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="38" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B63" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C63" s="39" t="inlineStr">
+      <c r="A63" s="49" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B63" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C63" s="50" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D63" s="40" t="n">
-        <v>300</v>
-      </c>
-      <c r="E63" s="41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F63" s="41" t="n">
-        <v>30</v>
-      </c>
-      <c r="G63" s="39" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 15-MAY-2024</t>
-        </is>
-      </c>
-      <c r="H63" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="54">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K63" s="65" t="n"/>
-      <c r="L63" s="65" t="n"/>
+      <c r="D63" s="51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" s="52" t="n">
+        <v>61.18</v>
+      </c>
+      <c r="F63" s="52" t="n">
+        <v>6117.71</v>
+      </c>
+      <c r="G63" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" s="51" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="I63" s="51" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="J63" s="55" t="n"/>
+      <c r="K63" s="56" t="n"/>
+      <c r="L63" s="56" t="n"/>
       <c r="M63" s="57" t="n"/>
       <c r="N63" s="58" t="n"/>
       <c r="O63" s="56" t="n"/>
-      <c r="P63" s="65" t="n"/>
+      <c r="P63" s="56" t="n"/>
       <c r="Q63" s="59" t="n"/>
       <c r="R63" s="59" t="n"/>
       <c r="S63" s="56" t="n"/>
-      <c r="T63" s="65" t="n"/>
+      <c r="T63" s="56" t="n"/>
       <c r="U63" s="59" t="n"/>
       <c r="V63" s="59" t="n"/>
-      <c r="W63" s="65" t="n"/>
-      <c r="X63" s="65" t="n"/>
-      <c r="Y63" s="65" t="n"/>
-      <c r="Z63" s="65" t="n"/>
-      <c r="AA63" s="65" t="n"/>
-      <c r="AB63" s="59" t="n"/>
-      <c r="AC63" s="59" t="n"/>
-      <c r="AD63" s="66" t="inlineStr">
+      <c r="W63" s="52" t="n">
+        <v>80.63</v>
+      </c>
+      <c r="X63" s="49" t="n">
+        <v>44229</v>
+      </c>
+      <c r="Y63" s="45">
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="60">
+        <f>(1-Index!$F$2*2)*((W35*D35)-(E35*D35))</f>
+        <v/>
+      </c>
+      <c r="AA63" s="60">
+        <f>((E35*D35)+Z35)</f>
+        <v/>
+      </c>
+      <c r="AB63" s="61">
+        <f>D35</f>
+        <v/>
+      </c>
+      <c r="AC63" s="62">
+        <f>if(B35="DIV", F35,"")</f>
+        <v/>
+      </c>
+      <c r="AD63" s="63" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="38" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B64" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C64" s="39" t="inlineStr">
+      <c r="A64" s="49" t="n">
+        <v>44070</v>
+      </c>
+      <c r="B64" s="50" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C64" s="50" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D64" s="40" t="n">
-        <v>300</v>
-      </c>
-      <c r="E64" s="41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F64" s="41" t="n">
-        <v>30</v>
-      </c>
-      <c r="G64" s="39" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 08-FEB-2024</t>
-        </is>
-      </c>
-      <c r="H64" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="54">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K64" s="65" t="n"/>
-      <c r="L64" s="65" t="n"/>
+      <c r="D64" s="51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" s="52" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="F64" s="52" t="n">
+        <v>6273.38</v>
+      </c>
+      <c r="G64" s="50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" s="51" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I64" s="51" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="J64" s="55" t="n"/>
+      <c r="K64" s="56" t="n"/>
+      <c r="L64" s="56" t="n"/>
       <c r="M64" s="57" t="n"/>
       <c r="N64" s="58" t="n"/>
       <c r="O64" s="56" t="n"/>
-      <c r="P64" s="65" t="n"/>
+      <c r="P64" s="56" t="n"/>
       <c r="Q64" s="59" t="n"/>
       <c r="R64" s="59" t="n"/>
       <c r="S64" s="56" t="n"/>
-      <c r="T64" s="65" t="n"/>
+      <c r="T64" s="56" t="n"/>
       <c r="U64" s="59" t="n"/>
       <c r="V64" s="59" t="n"/>
-      <c r="W64" s="65" t="n"/>
-      <c r="X64" s="65" t="n"/>
-      <c r="Y64" s="65" t="n"/>
-      <c r="Z64" s="65" t="n"/>
-      <c r="AA64" s="65" t="n"/>
-      <c r="AB64" s="59" t="n"/>
-      <c r="AC64" s="59" t="n"/>
-      <c r="AD64" s="66" t="inlineStr">
+      <c r="W64" s="52" t="n">
+        <v>80.63</v>
+      </c>
+      <c r="X64" s="49" t="n">
+        <v>44229</v>
+      </c>
+      <c r="Y64" s="45">
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="60">
+        <f>(1-Index!$F$2*2)*((W36*D36)-(E36*D36))</f>
+        <v/>
+      </c>
+      <c r="AA64" s="60">
+        <f>((E36*D36)+Z36)</f>
+        <v/>
+      </c>
+      <c r="AB64" s="61">
+        <f>D36</f>
+        <v/>
+      </c>
+      <c r="AC64" s="62">
+        <f>if(B36="DIV", F36,"")</f>
+        <v/>
+      </c>
+      <c r="AD64" s="63" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
@@ -5273,7 +5219,7 @@
     </row>
     <row r="65">
       <c r="A65" s="38" t="n">
-        <v>44028</v>
+        <v>45427</v>
       </c>
       <c r="B65" s="39" t="inlineStr">
         <is>
@@ -5286,17 +5232,17 @@
         </is>
       </c>
       <c r="D65" s="40" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E65" s="41" t="n">
-        <v>4.62</v>
+        <v>0.1</v>
       </c>
       <c r="F65" s="41" t="n">
-        <v>3237.5</v>
+        <v>30</v>
       </c>
       <c r="G65" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 16-JUL-2020</t>
+          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 15-MAY-2024</t>
         </is>
       </c>
       <c r="H65" s="40" t="n">
@@ -5336,7 +5282,7 @@
     </row>
     <row r="66">
       <c r="A66" s="38" t="n">
-        <v>43313</v>
+        <v>45330</v>
       </c>
       <c r="B66" s="39" t="inlineStr">
         <is>
@@ -5349,17 +5295,17 @@
         </is>
       </c>
       <c r="D66" s="40" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="E66" s="41" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="F66" s="41" t="n">
-        <v>575</v>
+        <v>30</v>
       </c>
       <c r="G66" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.5000/- per share on 01-AUG-2018</t>
+          <t>Interim-Dividend of Rs.0.1000/- per share on Ex-Date: 08-FEB-2024</t>
         </is>
       </c>
       <c r="H66" s="40" t="n">
@@ -5399,7 +5345,7 @@
     </row>
     <row r="67">
       <c r="A67" s="38" t="n">
-        <v>43146</v>
+        <v>44028</v>
       </c>
       <c r="B67" s="39" t="inlineStr">
         <is>
@@ -5412,17 +5358,17 @@
         </is>
       </c>
       <c r="D67" s="40" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="E67" s="41" t="n">
-        <v>2.5</v>
+        <v>4.62</v>
       </c>
       <c r="F67" s="41" t="n">
-        <v>325</v>
+        <v>3237.5</v>
       </c>
       <c r="G67" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.5000/- per share on 15-FEB-2018</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 16-JUL-2020</t>
         </is>
       </c>
       <c r="H67" s="40" t="n">
@@ -5462,7 +5408,7 @@
     </row>
     <row r="68">
       <c r="A68" s="38" t="n">
-        <v>42947</v>
+        <v>43313</v>
       </c>
       <c r="B68" s="39" t="inlineStr">
         <is>
@@ -5475,17 +5421,17 @@
         </is>
       </c>
       <c r="D68" s="40" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="E68" s="41" t="n">
         <v>2.5</v>
       </c>
       <c r="F68" s="41" t="n">
-        <v>150</v>
+        <v>575</v>
       </c>
       <c r="G68" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.5000/- per share on 31-JUL-2017</t>
+          <t>Dividend of Rs.2.5000/- per share on 01-AUG-2018</t>
         </is>
       </c>
       <c r="H68" s="40" t="n">
@@ -5524,8 +5470,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="40" t="n">
-        <v>60</v>
+      <c r="A69" s="38" t="n">
+        <v>43146</v>
       </c>
       <c r="B69" s="39" t="inlineStr">
         <is>
@@ -5537,15 +5483,18 @@
           <t>Buy</t>
         </is>
       </c>
+      <c r="D69" s="40" t="n">
+        <v>130</v>
+      </c>
       <c r="E69" s="41" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F69" s="41" t="n">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="G69" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.3.0000/- per share on 06-JUN-2017</t>
+          <t>Dividend of Rs.2.5000/- per share on 15-FEB-2018</t>
         </is>
       </c>
       <c r="H69" s="40" t="n">
@@ -5585,7 +5534,7 @@
     </row>
     <row r="70">
       <c r="A70" s="38" t="n">
-        <v>42768</v>
+        <v>42947</v>
       </c>
       <c r="B70" s="39" t="inlineStr">
         <is>
@@ -5598,17 +5547,17 @@
         </is>
       </c>
       <c r="D70" s="40" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E70" s="41" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F70" s="41" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G70" s="39" t="inlineStr">
         <is>
-          <t>Dividend of Rs.2.0000/- per share on 02-FEB-2017</t>
+          <t>Dividend of Rs.2.5000/- per share on 31-JUL-2017</t>
         </is>
       </c>
       <c r="H70" s="40" t="n">
@@ -5647,36 +5596,127 @@
       </c>
     </row>
     <row r="71">
-      <c r="E71" s="67" t="n"/>
-      <c r="F71" s="67" t="n"/>
-      <c r="G71" s="68" t="n"/>
-      <c r="J71" s="67" t="n"/>
-      <c r="K71" s="67" t="n"/>
-      <c r="L71" s="67" t="n"/>
-      <c r="M71" s="70" t="n"/>
-      <c r="W71" s="67" t="n"/>
-      <c r="X71" s="67" t="n"/>
-      <c r="Y71" s="67" t="n"/>
-      <c r="Z71" s="67" t="n"/>
-      <c r="AA71" s="67" t="n"/>
-      <c r="AB71" s="67" t="n"/>
-      <c r="AC71" s="67" t="n"/>
+      <c r="A71" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="B71" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C71" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E71" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" s="41" t="n">
+        <v>180</v>
+      </c>
+      <c r="G71" s="39" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.3.0000/- per share on 06-JUN-2017</t>
+        </is>
+      </c>
+      <c r="H71" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="54">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K71" s="65" t="n"/>
+      <c r="L71" s="65" t="n"/>
+      <c r="M71" s="57" t="n"/>
+      <c r="N71" s="58" t="n"/>
+      <c r="O71" s="56" t="n"/>
+      <c r="P71" s="65" t="n"/>
+      <c r="Q71" s="59" t="n"/>
+      <c r="R71" s="59" t="n"/>
+      <c r="S71" s="56" t="n"/>
+      <c r="T71" s="65" t="n"/>
+      <c r="U71" s="59" t="n"/>
+      <c r="V71" s="59" t="n"/>
+      <c r="W71" s="65" t="n"/>
+      <c r="X71" s="65" t="n"/>
+      <c r="Y71" s="65" t="n"/>
+      <c r="Z71" s="65" t="n"/>
+      <c r="AA71" s="65" t="n"/>
+      <c r="AB71" s="59" t="n"/>
+      <c r="AC71" s="59" t="n"/>
+      <c r="AD71" s="66" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="E72" s="67" t="n"/>
-      <c r="F72" s="67" t="n"/>
-      <c r="G72" s="68" t="n"/>
-      <c r="J72" s="67" t="n"/>
-      <c r="K72" s="67" t="n"/>
-      <c r="L72" s="67" t="n"/>
-      <c r="M72" s="70" t="n"/>
-      <c r="W72" s="67" t="n"/>
-      <c r="X72" s="67" t="n"/>
-      <c r="Y72" s="67" t="n"/>
-      <c r="Z72" s="67" t="n"/>
-      <c r="AA72" s="67" t="n"/>
-      <c r="AB72" s="67" t="n"/>
-      <c r="AC72" s="67" t="n"/>
+      <c r="A72" s="38" t="n">
+        <v>42768</v>
+      </c>
+      <c r="B72" s="39" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C72" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D72" s="40" t="n">
+        <v>40</v>
+      </c>
+      <c r="E72" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="41" t="n">
+        <v>80</v>
+      </c>
+      <c r="G72" s="39" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.2.0000/- per share on 02-FEB-2017</t>
+        </is>
+      </c>
+      <c r="H72" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="54">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K72" s="65" t="n"/>
+      <c r="L72" s="65" t="n"/>
+      <c r="M72" s="57" t="n"/>
+      <c r="N72" s="58" t="n"/>
+      <c r="O72" s="56" t="n"/>
+      <c r="P72" s="65" t="n"/>
+      <c r="Q72" s="59" t="n"/>
+      <c r="R72" s="59" t="n"/>
+      <c r="S72" s="56" t="n"/>
+      <c r="T72" s="65" t="n"/>
+      <c r="U72" s="59" t="n"/>
+      <c r="V72" s="59" t="n"/>
+      <c r="W72" s="65" t="n"/>
+      <c r="X72" s="65" t="n"/>
+      <c r="Y72" s="65" t="n"/>
+      <c r="Z72" s="65" t="n"/>
+      <c r="AA72" s="65" t="n"/>
+      <c r="AB72" s="59" t="n"/>
+      <c r="AC72" s="59" t="n"/>
+      <c r="AD72" s="66" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="E73" s="67" t="n"/>
@@ -20581,6 +20621,7 @@
       <c r="J1004" s="67" t="n"/>
       <c r="K1004" s="67" t="n"/>
       <c r="L1004" s="67" t="n"/>
+      <c r="M1004" s="70" t="n"/>
       <c r="W1004" s="67" t="n"/>
       <c r="X1004" s="67" t="n"/>
       <c r="Y1004" s="67" t="n"/>
@@ -20596,6 +20637,7 @@
       <c r="J1005" s="67" t="n"/>
       <c r="K1005" s="67" t="n"/>
       <c r="L1005" s="67" t="n"/>
+      <c r="M1005" s="70" t="n"/>
       <c r="W1005" s="67" t="n"/>
       <c r="X1005" s="67" t="n"/>
       <c r="Y1005" s="67" t="n"/>
@@ -20828,6 +20870,36 @@
       <c r="AA1020" s="67" t="n"/>
       <c r="AB1020" s="67" t="n"/>
       <c r="AC1020" s="67" t="n"/>
+    </row>
+    <row r="1021">
+      <c r="E1021" s="67" t="n"/>
+      <c r="F1021" s="67" t="n"/>
+      <c r="G1021" s="68" t="n"/>
+      <c r="J1021" s="67" t="n"/>
+      <c r="K1021" s="67" t="n"/>
+      <c r="L1021" s="67" t="n"/>
+      <c r="W1021" s="67" t="n"/>
+      <c r="X1021" s="67" t="n"/>
+      <c r="Y1021" s="67" t="n"/>
+      <c r="Z1021" s="67" t="n"/>
+      <c r="AA1021" s="67" t="n"/>
+      <c r="AB1021" s="67" t="n"/>
+      <c r="AC1021" s="67" t="n"/>
+    </row>
+    <row r="1022">
+      <c r="E1022" s="67" t="n"/>
+      <c r="F1022" s="67" t="n"/>
+      <c r="G1022" s="68" t="n"/>
+      <c r="J1022" s="67" t="n"/>
+      <c r="K1022" s="67" t="n"/>
+      <c r="L1022" s="67" t="n"/>
+      <c r="W1022" s="67" t="n"/>
+      <c r="X1022" s="67" t="n"/>
+      <c r="Y1022" s="67" t="n"/>
+      <c r="Z1022" s="67" t="n"/>
+      <c r="AA1022" s="67" t="n"/>
+      <c r="AB1022" s="67" t="n"/>
+      <c r="AC1022" s="67" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$73"/>
